--- a/tests/regression_data_windows/performance_analysis_critical_mass_flow_rate_windows.xlsx
+++ b/tests/regression_data_windows/performance_analysis_critical_mass_flow_rate_windows.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.015427046466956</v>
+        <v>2.015427049316283</v>
       </c>
       <c r="C2" t="n">
-        <v>2.2999999999493</v>
+        <v>2.299999999976408</v>
       </c>
       <c r="D2" t="n">
-        <v>2.740246981964861</v>
+        <v>2.740246986729423</v>
       </c>
       <c r="E2" t="n">
-        <v>92.55823417539465</v>
+        <v>92.5582341251138</v>
       </c>
       <c r="F2" t="n">
-        <v>79.08749261678626</v>
+        <v>79.08749271743685</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1455380137555539</v>
+        <v>0.1455380122039508</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.23303063054182</v>
+        <v>-78.2330307296408</v>
       </c>
       <c r="I2" t="n">
-        <v>136184.1922946108</v>
+        <v>136184.1927047136</v>
       </c>
       <c r="J2" t="n">
-        <v>83.70263816509576</v>
+        <v>83.70263841715645</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-24.3533121535435</v>
+        <v>-24.35331123886951</v>
       </c>
       <c r="M2" t="n">
-        <v>135.2439391897865</v>
+        <v>135.2439384688583</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>372086.6508553053</v>
+        <v>372086.6507920575</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7159934121333336</v>
+        <v>0.7159934127557948</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.069523116981593</v>
+        <v>2.069523117990664</v>
       </c>
       <c r="C3" t="n">
-        <v>2.399999999959487</v>
+        <v>2.400000000031385</v>
       </c>
       <c r="D3" t="n">
-        <v>2.742649143065224</v>
+        <v>2.742649139570286</v>
       </c>
       <c r="E3" t="n">
-        <v>92.53013772355254</v>
+        <v>92.53013772014036</v>
       </c>
       <c r="F3" t="n">
-        <v>78.20472736277226</v>
+        <v>78.20472740482481</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1548188591654274</v>
+        <v>0.1548188586797861</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.35954622193769</v>
+        <v>-77.3595462635046</v>
       </c>
       <c r="I3" t="n">
-        <v>140842.5890788545</v>
+        <v>140842.5889751143</v>
       </c>
       <c r="J3" t="n">
-        <v>86.56581996241827</v>
+        <v>86.56581989865658</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.84261387933775</v>
+        <v>-26.84261384058214</v>
       </c>
       <c r="M3" t="n">
-        <v>142.5910606161458</v>
+        <v>142.5910603925035</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>370431.6762402438</v>
+        <v>370431.6762126302</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7036644341894877</v>
+        <v>0.7036644337411505</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3255,10 +3255,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>80.63109367284092</v>
+        <v>80.63109382211466</v>
       </c>
       <c r="D2" t="n">
-        <v>80.63109367284092</v>
+        <v>80.63109382211466</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3267,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.63109367284092</v>
+        <v>80.63109382211466</v>
       </c>
       <c r="H2" t="n">
-        <v>80.63109367284092</v>
+        <v>80.63109382211466</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3279,97 +3279,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.3588221757998</v>
+        <v>292.3588221637978</v>
       </c>
       <c r="L2" t="n">
-        <v>132782.5732970721</v>
+        <v>132782.573278019</v>
       </c>
       <c r="M2" t="n">
-        <v>1.583021137624202</v>
+        <v>1.583021137462172</v>
       </c>
       <c r="N2" t="n">
-        <v>334654.5275949435</v>
+        <v>334654.5275863578</v>
       </c>
       <c r="O2" t="n">
-        <v>418533.7444551506</v>
+        <v>418533.7444431143</v>
       </c>
       <c r="P2" t="n">
         <v>3782.917347718239</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687435.5157121546</v>
+        <v>-687435.5156787878</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7131970946336</v>
+        <v>717.7131970940907</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.647996703489</v>
+        <v>1006.647996702858</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402576963581676</v>
+        <v>1.40257696358186</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994980090680206</v>
+        <v>0.9994980090679367</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9119532948582</v>
+        <v>342.911953287813</v>
       </c>
       <c r="W2" t="n">
-        <v>186145.2515526798</v>
+        <v>186145.2515259782</v>
       </c>
       <c r="X2" t="n">
-        <v>5.372148855040743e-06</v>
+        <v>5.372148855811353e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132716.6040695064</v>
+        <v>132716.6040504514</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.534852229011823e-06</v>
+        <v>7.534852230093651e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003433385359052491</v>
+        <v>0.003433385359193211</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817172138343239e-05</v>
+        <v>1.817172138284515e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02582478594497179</v>
+        <v>0.02582478594406725</v>
       </c>
       <c r="AD2" t="n">
-        <v>132782.5732970721</v>
+        <v>132782.573278019</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.583021137624202</v>
+        <v>1.583021137462172</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.583021137624202</v>
+        <v>1.583021137462172</v>
       </c>
       <c r="AG2" t="n">
-        <v>334654.5275949435</v>
+        <v>334654.5275863578</v>
       </c>
       <c r="AH2" t="n">
-        <v>418533.7444551506</v>
+        <v>418533.7444431143</v>
       </c>
       <c r="AI2" t="n">
         <v>3782.917347718239</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7131970946336</v>
+        <v>717.7131970940907</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.647996703489</v>
+        <v>1006.647996702858</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9119532948582</v>
+        <v>342.911953287813</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994980090680206</v>
+        <v>0.9994980090679367</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817172138343239e-05</v>
+        <v>1.817172138284515e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02582478594497179</v>
+        <v>0.02582478594406725</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3582,16 +3582,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2351364334141745</v>
+        <v>0.2351364338543175</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2351364334141745</v>
+        <v>0.2351364338543175</v>
       </c>
       <c r="DH2" t="n">
-        <v>183751.5176534795</v>
+        <v>183751.5179807922</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.740246981960068</v>
+        <v>2.740246986752656</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3645,121 +3645,121 @@
         <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>268.7000940867448</v>
+        <v>268.7000969288608</v>
       </c>
       <c r="DV2" t="n">
-        <v>110.6125392090653</v>
+        <v>110.6125402548549</v>
       </c>
       <c r="DW2" t="n">
-        <v>244.8767174150056</v>
+        <v>244.8767200612327</v>
       </c>
       <c r="DX2" t="n">
-        <v>65.69097056191143</v>
+        <v>65.69097059096921</v>
       </c>
       <c r="DY2" t="n">
-        <v>268.7000940867448</v>
+        <v>268.7000969288608</v>
       </c>
       <c r="DZ2" t="n">
-        <v>110.6125392090653</v>
+        <v>110.6125402548549</v>
       </c>
       <c r="EA2" t="n">
-        <v>244.8767174150056</v>
+        <v>244.8767200612327</v>
       </c>
       <c r="EB2" t="n">
-        <v>65.69097056191143</v>
+        <v>65.69097059096921</v>
       </c>
       <c r="EC2" t="n">
-        <v>259.576882758031</v>
+        <v>259.5768819953673</v>
       </c>
       <c r="ED2" t="n">
-        <v>85923.81121351976</v>
+        <v>85923.81030057516</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.153944449210378</v>
+        <v>1.15394444034365</v>
       </c>
       <c r="EF2" t="n">
-        <v>311223.6010339597</v>
+        <v>311223.6004890939</v>
       </c>
       <c r="EG2" t="n">
-        <v>385684.5608074702</v>
+        <v>385684.5600435995</v>
       </c>
       <c r="EH2" t="n">
-        <v>3788.609748070411</v>
+        <v>3788.609748175506</v>
       </c>
       <c r="EI2" t="n">
-        <v>-597750.9475833362</v>
+        <v>-597750.9454850524</v>
       </c>
       <c r="EJ2" t="n">
-        <v>716.5374573967393</v>
+        <v>716.5374573761463</v>
       </c>
       <c r="EK2" t="n">
-        <v>1005.204882836899</v>
+        <v>1005.204882810429</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.402864389656503</v>
+        <v>1.402864389659879</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.9993241596298587</v>
+        <v>0.9993241596267596</v>
       </c>
       <c r="EN2" t="n">
-        <v>323.0917882432805</v>
+        <v>323.0917877680213</v>
       </c>
       <c r="EO2" t="n">
-        <v>120458.3035366039</v>
+        <v>120458.3022566395</v>
       </c>
       <c r="EP2" t="n">
-        <v>8.301627788541183e-06</v>
+        <v>8.301627876752524e-06</v>
       </c>
       <c r="EQ2" t="n">
-        <v>85865.96425481918</v>
+        <v>85865.96334221894</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.164605800072728e-05</v>
+        <v>1.164605812450387e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.00386587501136287</v>
+        <v>0.003865875022693936</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.6529113999317e-05</v>
+        <v>1.652911396017464e-05</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.02330775433534867</v>
+        <v>0.02330775427568785</v>
       </c>
       <c r="EV2" t="n">
-        <v>85923.81121351976</v>
+        <v>85923.81030057516</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.153944449210378</v>
+        <v>1.15394444034365</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.153944449210378</v>
+        <v>1.15394444034365</v>
       </c>
       <c r="EY2" t="n">
-        <v>311223.6010339597</v>
+        <v>311223.6004890939</v>
       </c>
       <c r="EZ2" t="n">
-        <v>385684.5608074702</v>
+        <v>385684.5600435995</v>
       </c>
       <c r="FA2" t="n">
-        <v>3788.609748070411</v>
+        <v>3788.609748175506</v>
       </c>
       <c r="FB2" t="n">
-        <v>716.5374573967393</v>
+        <v>716.5374573761463</v>
       </c>
       <c r="FC2" t="n">
-        <v>1005.204882836899</v>
+        <v>1005.204882810429</v>
       </c>
       <c r="FD2" t="n">
-        <v>323.0917882432805</v>
+        <v>323.0917877680213</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.9993241596298587</v>
+        <v>0.9993241596267596</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.6529113999317e-05</v>
+        <v>1.652911396017464e-05</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.02330775433534867</v>
+        <v>0.02330775427568785</v>
       </c>
       <c r="FH2" t="inlineStr">
         <is>
@@ -3770,97 +3770,97 @@
         <v>1</v>
       </c>
       <c r="FJ2" t="n">
-        <v>295.5937144863384</v>
+        <v>295.5937144863237</v>
       </c>
       <c r="FK2" t="n">
-        <v>135289.0393227241</v>
+        <v>135289.0392733279</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.595200320591218</v>
+        <v>1.595200320008594</v>
       </c>
       <c r="FM2" t="n">
-        <v>336974.3683168226</v>
+        <v>336974.3683169128</v>
       </c>
       <c r="FN2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="FO2" t="n">
-        <v>3788.609748075611</v>
+        <v>3788.609748180707</v>
       </c>
       <c r="FP2" t="n">
-        <v>-698104.797084331</v>
+        <v>-698104.7971152409</v>
       </c>
       <c r="FQ2" t="n">
-        <v>717.8561751867652</v>
+        <v>717.8561751866407</v>
       </c>
       <c r="FR2" t="n">
-        <v>1006.777073038529</v>
+        <v>1006.777073037721</v>
       </c>
       <c r="FS2" t="n">
-        <v>1.40247741516829</v>
+        <v>1.402477415167406</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.999530289991522</v>
+        <v>0.9995302899916915</v>
       </c>
       <c r="FU2" t="n">
-        <v>344.8027749233927</v>
+        <v>344.8027749233335</v>
       </c>
       <c r="FV2" t="n">
-        <v>189651.6968892939</v>
+        <v>189651.6968199612</v>
       </c>
       <c r="FW2" t="n">
-        <v>5.272823899823757e-06</v>
+        <v>5.272823901751393e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>135226.2038861687</v>
+        <v>135226.2038368178</v>
       </c>
       <c r="FY2" t="n">
-        <v>7.395016433662403e-06</v>
+        <v>7.395016436361215e-06</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.003395619870061994</v>
+        <v>0.003395619870057574</v>
       </c>
       <c r="GA2" t="n">
-        <v>1.832925574427002e-05</v>
+        <v>1.832925574426218e-05</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.02606729613576628</v>
+        <v>0.02606729613574935</v>
       </c>
       <c r="GC2" t="n">
-        <v>135289.0393227241</v>
+        <v>135289.0392733279</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.595200320591218</v>
+        <v>1.595200320008594</v>
       </c>
       <c r="GE2" t="n">
-        <v>1.595200320591218</v>
+        <v>1.595200320008594</v>
       </c>
       <c r="GF2" t="n">
-        <v>336974.3683168226</v>
+        <v>336974.3683169128</v>
       </c>
       <c r="GG2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GH2" t="n">
-        <v>3788.609748075611</v>
+        <v>3788.609748180707</v>
       </c>
       <c r="GI2" t="n">
-        <v>717.8561751867652</v>
+        <v>717.8561751866407</v>
       </c>
       <c r="GJ2" t="n">
-        <v>1006.777073038529</v>
+        <v>1006.777073037721</v>
       </c>
       <c r="GK2" t="n">
-        <v>344.8027749233927</v>
+        <v>344.8027749233335</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.999530289991522</v>
+        <v>0.9995302899916915</v>
       </c>
       <c r="GM2" t="n">
-        <v>1.832925574427002e-05</v>
+        <v>1.832925574426218e-05</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.02606729613576628</v>
+        <v>0.02606729613574935</v>
       </c>
       <c r="GO2" t="inlineStr">
         <is>
@@ -3871,97 +3871,97 @@
         <v>1</v>
       </c>
       <c r="GQ2" t="n">
-        <v>295.5937144863384</v>
+        <v>295.5937144863237</v>
       </c>
       <c r="GR2" t="n">
-        <v>135289.0393227241</v>
+        <v>135289.0392733279</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.595200320591218</v>
+        <v>1.595200320008594</v>
       </c>
       <c r="GT2" t="n">
-        <v>336974.3683168226</v>
+        <v>336974.3683169128</v>
       </c>
       <c r="GU2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GV2" t="n">
-        <v>3788.609748075611</v>
+        <v>3788.609748180707</v>
       </c>
       <c r="GW2" t="n">
-        <v>-698104.797084331</v>
+        <v>-698104.7971152409</v>
       </c>
       <c r="GX2" t="n">
-        <v>717.8561751867652</v>
+        <v>717.8561751866407</v>
       </c>
       <c r="GY2" t="n">
-        <v>1006.777073038529</v>
+        <v>1006.777073037721</v>
       </c>
       <c r="GZ2" t="n">
-        <v>1.40247741516829</v>
+        <v>1.402477415167406</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.999530289991522</v>
+        <v>0.9995302899916915</v>
       </c>
       <c r="HB2" t="n">
-        <v>344.8027749233927</v>
+        <v>344.8027749233335</v>
       </c>
       <c r="HC2" t="n">
-        <v>189651.6968892939</v>
+        <v>189651.6968199612</v>
       </c>
       <c r="HD2" t="n">
-        <v>5.272823899823757e-06</v>
+        <v>5.272823901751393e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>135226.2038861687</v>
+        <v>135226.2038368178</v>
       </c>
       <c r="HF2" t="n">
-        <v>7.395016433662403e-06</v>
+        <v>7.395016436361215e-06</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.003395619870061994</v>
+        <v>0.003395619870057574</v>
       </c>
       <c r="HH2" t="n">
-        <v>1.832925574427002e-05</v>
+        <v>1.832925574426218e-05</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.02606729613576628</v>
+        <v>0.02606729613574935</v>
       </c>
       <c r="HJ2" t="n">
-        <v>135289.0393227241</v>
+        <v>135289.0392733279</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.595200320591218</v>
+        <v>1.595200320008594</v>
       </c>
       <c r="HL2" t="n">
-        <v>1.595200320591218</v>
+        <v>1.595200320008594</v>
       </c>
       <c r="HM2" t="n">
-        <v>336974.3683168226</v>
+        <v>336974.3683169128</v>
       </c>
       <c r="HN2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="HO2" t="n">
-        <v>3788.609748075611</v>
+        <v>3788.609748180707</v>
       </c>
       <c r="HP2" t="n">
-        <v>717.8561751867652</v>
+        <v>717.8561751866407</v>
       </c>
       <c r="HQ2" t="n">
-        <v>1006.777073038529</v>
+        <v>1006.777073037721</v>
       </c>
       <c r="HR2" t="n">
-        <v>344.8027749233927</v>
+        <v>344.8027749233335</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.999530289991522</v>
+        <v>0.9995302899916915</v>
       </c>
       <c r="HT2" t="n">
-        <v>1.832925574427002e-05</v>
+        <v>1.832925574426218e-05</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.02606729613576628</v>
+        <v>0.02606729613574935</v>
       </c>
       <c r="HV2" t="inlineStr">
         <is>
@@ -3972,166 +3972,166 @@
         <v>1</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8316525020574649</v>
+        <v>0.831652512077424</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.8316525020574649</v>
+        <v>0.831652512077424</v>
       </c>
       <c r="HZ2" t="n">
-        <v>490728.0530210696</v>
+        <v>490728.0556030464</v>
       </c>
       <c r="IA2" t="n">
-        <v>2.740246981949377</v>
+        <v>2.740246986801495</v>
       </c>
       <c r="IB2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.01593440616305371</v>
+        <v>0.01593440619298704</v>
       </c>
       <c r="ID2" t="n">
-        <v>-1.788006355202653e-07</v>
+        <v>-1.788006381059331e-07</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.01379068410815233</v>
+        <v>0.01379068410913827</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.02519148973576893</v>
+        <v>0.02519148972219196</v>
       </c>
       <c r="IG2" t="n">
         <v>0</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.05491640120633945</v>
+        <v>0.05491640122367916</v>
       </c>
       <c r="II2" t="n">
-        <v>-4.539424391936109e-13</v>
+        <v>2.217808575677438e-11</v>
       </c>
       <c r="IJ2" t="n">
         <v>0</v>
       </c>
       <c r="IK2" t="n">
-        <v>384211.1212110673</v>
+        <v>384211.120424399</v>
       </c>
       <c r="IL2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM2" t="n">
-        <v>268.7000940867448</v>
+        <v>268.7000969288608</v>
       </c>
       <c r="IN2" t="n">
-        <v>110.6125392090653</v>
+        <v>110.6125402548549</v>
       </c>
       <c r="IO2" t="n">
-        <v>244.8767174150056</v>
+        <v>244.8767200612327</v>
       </c>
       <c r="IP2" t="n">
-        <v>65.69097056191143</v>
+        <v>65.69097059096921</v>
       </c>
       <c r="IQ2" t="n">
-        <v>136.2610674553565</v>
+        <v>136.2610698496356</v>
       </c>
       <c r="IR2" t="n">
-        <v>110.6125392090653</v>
+        <v>110.6125402548549</v>
       </c>
       <c r="IS2" t="n">
-        <v>79.57351741500557</v>
+        <v>79.57352006123267</v>
       </c>
       <c r="IT2" t="n">
-        <v>35.7308499790451</v>
+        <v>35.73085062550226</v>
       </c>
       <c r="IU2" t="n">
-        <v>259.5768827578376</v>
+        <v>259.5768819956671</v>
       </c>
       <c r="IV2" t="n">
-        <v>85923.81121337293</v>
+        <v>85923.81030075687</v>
       </c>
       <c r="IW2" t="n">
-        <v>1.153944449209268</v>
+        <v>1.153944440344755</v>
       </c>
       <c r="IX2" t="n">
-        <v>311223.6010338215</v>
+        <v>311223.6004893085</v>
       </c>
       <c r="IY2" t="n">
-        <v>385684.5608072765</v>
+        <v>385684.5600439003</v>
       </c>
       <c r="IZ2" t="n">
-        <v>3788.609748070153</v>
+        <v>3788.609748176058</v>
       </c>
       <c r="JA2" t="n">
-        <v>-597750.9475827306</v>
+        <v>-597750.9454860303</v>
       </c>
       <c r="JB2" t="n">
-        <v>716.5374573967345</v>
+        <v>716.5374573761538</v>
       </c>
       <c r="JC2" t="n">
-        <v>1005.204882836894</v>
+        <v>1005.204882810435</v>
       </c>
       <c r="JD2" t="n">
-        <v>1.402864389656505</v>
+        <v>1.402864389659873</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.9993241596298572</v>
+        <v>0.9993241596267621</v>
       </c>
       <c r="JF2" t="n">
-        <v>323.09178824316</v>
+        <v>323.091787768208</v>
       </c>
       <c r="JG2" t="n">
-        <v>120458.3035363982</v>
+        <v>120458.3022568941</v>
       </c>
       <c r="JH2" t="n">
-        <v>8.30162778855536e-06</v>
+        <v>8.301627876734982e-06</v>
       </c>
       <c r="JI2" t="n">
-        <v>85865.96425467233</v>
+        <v>85865.96334240072</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.16460580007472e-05</v>
+        <v>1.164605812447921e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.003865875011365757</v>
+        <v>0.003865875022689454</v>
       </c>
       <c r="JL2" t="n">
-        <v>1.652911399930709e-05</v>
+        <v>1.652911396019e-05</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.02330775433533357</v>
+        <v>0.02330775427571124</v>
       </c>
       <c r="JN2" t="n">
-        <v>85923.81121337293</v>
+        <v>85923.81030075687</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.153944449209268</v>
+        <v>1.153944440344755</v>
       </c>
       <c r="JP2" t="n">
-        <v>1.153944449209268</v>
+        <v>1.153944440344755</v>
       </c>
       <c r="JQ2" t="n">
-        <v>311223.6010338215</v>
+        <v>311223.6004893085</v>
       </c>
       <c r="JR2" t="n">
-        <v>385684.5608072765</v>
+        <v>385684.5600439003</v>
       </c>
       <c r="JS2" t="n">
-        <v>3788.609748070153</v>
+        <v>3788.609748176058</v>
       </c>
       <c r="JT2" t="n">
-        <v>716.5374573967345</v>
+        <v>716.5374573761538</v>
       </c>
       <c r="JU2" t="n">
-        <v>1005.204882836894</v>
+        <v>1005.204882810435</v>
       </c>
       <c r="JV2" t="n">
-        <v>323.09178824316</v>
+        <v>323.091787768208</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.9993241596298572</v>
+        <v>0.9993241596267621</v>
       </c>
       <c r="JX2" t="n">
-        <v>1.652911399930709e-05</v>
+        <v>1.652911396019e-05</v>
       </c>
       <c r="JY2" t="n">
-        <v>0.02330775433533357</v>
+        <v>0.02330775427571124</v>
       </c>
       <c r="JZ2" t="inlineStr">
         <is>
@@ -4142,97 +4142,97 @@
         <v>1</v>
       </c>
       <c r="KB2" t="n">
-        <v>295.5937144864388</v>
+        <v>295.5937144862228</v>
       </c>
       <c r="KC2" t="n">
-        <v>135289.0393230057</v>
+        <v>135289.0392729078</v>
       </c>
       <c r="KD2" t="n">
-        <v>1.595200320593995</v>
+        <v>1.595200320004183</v>
       </c>
       <c r="KE2" t="n">
-        <v>336974.3683168942</v>
+        <v>336974.3683168411</v>
       </c>
       <c r="KF2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="KG2" t="n">
-        <v>3788.609748075354</v>
+        <v>3788.609748181259</v>
       </c>
       <c r="KH2" t="n">
-        <v>-698104.7970845356</v>
+        <v>-698104.7971151223</v>
       </c>
       <c r="KI2" t="n">
-        <v>717.8561751867702</v>
+        <v>717.8561751866354</v>
       </c>
       <c r="KJ2" t="n">
-        <v>1006.777073038537</v>
+        <v>1006.777073037711</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.40247741516829</v>
+        <v>1.402477415167404</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.9995302899915224</v>
+        <v>0.9995302899916916</v>
       </c>
       <c r="KM2" t="n">
-        <v>344.8027749234516</v>
+        <v>344.8027749232743</v>
       </c>
       <c r="KN2" t="n">
-        <v>189651.6968896888</v>
+        <v>189651.6968193717</v>
       </c>
       <c r="KO2" t="n">
-        <v>5.272823899812778e-06</v>
+        <v>5.272823901767782e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>135226.2038864501</v>
+        <v>135226.2038363978</v>
       </c>
       <c r="KQ2" t="n">
-        <v>7.395016433647011e-06</v>
+        <v>7.395016436384185e-06</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.003395619870060853</v>
+        <v>0.003395619870058708</v>
       </c>
       <c r="KS2" t="n">
-        <v>1.832925574427493e-05</v>
+        <v>1.832925574425723e-05</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.02606729613577387</v>
+        <v>0.0260672961357417</v>
       </c>
       <c r="KU2" t="n">
-        <v>135289.0393230057</v>
+        <v>135289.0392729078</v>
       </c>
       <c r="KV2" t="n">
-        <v>1.595200320593995</v>
+        <v>1.595200320004183</v>
       </c>
       <c r="KW2" t="n">
-        <v>1.595200320593995</v>
+        <v>1.595200320004183</v>
       </c>
       <c r="KX2" t="n">
-        <v>336974.3683168942</v>
+        <v>336974.3683168411</v>
       </c>
       <c r="KY2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="KZ2" t="n">
-        <v>3788.609748075354</v>
+        <v>3788.609748181259</v>
       </c>
       <c r="LA2" t="n">
-        <v>717.8561751867702</v>
+        <v>717.8561751866354</v>
       </c>
       <c r="LB2" t="n">
-        <v>1006.777073038537</v>
+        <v>1006.777073037711</v>
       </c>
       <c r="LC2" t="n">
-        <v>344.8027749234516</v>
+        <v>344.8027749232743</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.9995302899915224</v>
+        <v>0.9995302899916916</v>
       </c>
       <c r="LE2" t="n">
-        <v>1.832925574427493e-05</v>
+        <v>1.832925574425723e-05</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.02606729613577387</v>
+        <v>0.0260672961357417</v>
       </c>
       <c r="LG2" t="inlineStr">
         <is>
@@ -4243,97 +4243,97 @@
         <v>1</v>
       </c>
       <c r="LI2" t="n">
-        <v>268.8434086146747</v>
+        <v>268.8434081779118</v>
       </c>
       <c r="LJ2" t="n">
-        <v>97121.33605884585</v>
+        <v>97121.33547201091</v>
       </c>
       <c r="LK2" t="n">
-        <v>1.259312808590529</v>
+        <v>1.259312803029774</v>
       </c>
       <c r="LL2" t="n">
-        <v>317845.6127820692</v>
+        <v>317845.6124699913</v>
       </c>
       <c r="LM2" t="n">
-        <v>394968.1000595136</v>
+        <v>394968.0996219898</v>
       </c>
       <c r="LN2" t="n">
-        <v>3788.609748070152</v>
+        <v>3788.609748176059</v>
       </c>
       <c r="LO2" t="n">
-        <v>-623574.6585224504</v>
+        <v>-623574.657333722</v>
       </c>
       <c r="LP2" t="n">
-        <v>716.8078693105863</v>
+        <v>716.8078692966815</v>
       </c>
       <c r="LQ2" t="n">
-        <v>1005.539795490952</v>
+        <v>1005.539795473374</v>
       </c>
       <c r="LR2" t="n">
-        <v>1.40280239453574</v>
+        <v>1.402802394538429</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.9993679200728928</v>
+        <v>0.9993679200709135</v>
       </c>
       <c r="LT2" t="n">
-        <v>328.8154050298702</v>
+        <v>328.8154047624324</v>
       </c>
       <c r="LU2" t="n">
-        <v>136156.360096945</v>
+        <v>136156.3592742363</v>
       </c>
       <c r="LV2" t="n">
-        <v>7.344497159647835e-06</v>
+        <v>7.344497204026085e-06</v>
       </c>
       <c r="LW2" t="n">
-        <v>97060.25640340184</v>
+        <v>97060.2558167407</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.030287820221492e-05</v>
+        <v>1.030287826448859e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.003732878037770483</v>
+        <v>0.003732878043818624</v>
       </c>
       <c r="LZ2" t="n">
-        <v>1.700134509419965e-05</v>
+        <v>1.700134507208991e-05</v>
       </c>
       <c r="MA2" t="n">
-        <v>0.02402857194624797</v>
+        <v>0.02402857191244357</v>
       </c>
       <c r="MB2" t="n">
-        <v>97121.33605884585</v>
+        <v>97121.33547201091</v>
       </c>
       <c r="MC2" t="n">
-        <v>1.259312808590529</v>
+        <v>1.259312803029774</v>
       </c>
       <c r="MD2" t="n">
-        <v>1.259312808590529</v>
+        <v>1.259312803029774</v>
       </c>
       <c r="ME2" t="n">
-        <v>317845.6127820692</v>
+        <v>317845.6124699913</v>
       </c>
       <c r="MF2" t="n">
-        <v>394968.1000595136</v>
+        <v>394968.0996219898</v>
       </c>
       <c r="MG2" t="n">
-        <v>3788.609748070152</v>
+        <v>3788.609748176059</v>
       </c>
       <c r="MH2" t="n">
-        <v>716.8078693105863</v>
+        <v>716.8078692966815</v>
       </c>
       <c r="MI2" t="n">
-        <v>1005.539795490952</v>
+        <v>1005.539795473374</v>
       </c>
       <c r="MJ2" t="n">
-        <v>328.8154050298702</v>
+        <v>328.8154047624324</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.9993679200728928</v>
+        <v>0.9993679200709135</v>
       </c>
       <c r="ML2" t="n">
-        <v>1.700134509419965e-05</v>
+        <v>1.700134507208991e-05</v>
       </c>
       <c r="MM2" t="n">
-        <v>0.02402857194624797</v>
+        <v>0.02402857191244357</v>
       </c>
       <c r="MN2" t="inlineStr">
         <is>
@@ -4344,139 +4344,139 @@
         <v>1</v>
       </c>
       <c r="MP2" t="n">
-        <v>0.8316525020577749</v>
+        <v>0.8316525120769434</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.4217410420620345</v>
+        <v>0.4217410500925262</v>
       </c>
       <c r="MR2" t="n">
-        <v>247902.8534492033</v>
+        <v>247902.8564874753</v>
       </c>
       <c r="MS2" t="n">
-        <v>2.740246981946741</v>
+        <v>2.740246986804119</v>
       </c>
       <c r="MT2" t="n">
-        <v>381305.5260942932</v>
+        <v>381305.5256569637</v>
       </c>
       <c r="MU2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV2" t="n">
-        <v>135.2439391897865</v>
+        <v>135.2439384688583</v>
       </c>
       <c r="MW2" t="n">
-        <v>123.2099306830385</v>
+        <v>123.2099309165666</v>
       </c>
       <c r="MX2" t="n">
-        <v>-55.76949048226581</v>
+        <v>-55.76948821804996</v>
       </c>
       <c r="MY2" t="n">
-        <v>-24.3533121535435</v>
+        <v>-24.35331123886951</v>
       </c>
       <c r="MZ2" t="n">
-        <v>253.0885645302585</v>
+        <v>253.088562666155</v>
       </c>
       <c r="NA2" t="n">
-        <v>123.2099306830385</v>
+        <v>123.2099309165666</v>
       </c>
       <c r="NB2" t="n">
-        <v>-221.0726904822658</v>
+        <v>-221.07268821805</v>
       </c>
       <c r="NC2" t="n">
-        <v>-60.86786582232995</v>
+        <v>-60.86786552660961</v>
       </c>
       <c r="ND2" t="n">
-        <v>236.8579341596342</v>
+        <v>236.8579341938318</v>
       </c>
       <c r="NE2" t="n">
-        <v>60000.00000032352</v>
+        <v>59999.99999961635</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.8831275048626536</v>
+        <v>0.8831275047243261</v>
       </c>
       <c r="NG2" t="n">
-        <v>295000.8299975574</v>
+        <v>295000.83002207</v>
       </c>
       <c r="NH2" t="n">
-        <v>362941.1893114198</v>
+        <v>362941.1893457735</v>
       </c>
       <c r="NI2" t="n">
-        <v>3799.930415302355</v>
+        <v>3799.930415450776</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-537102.4788074568</v>
+        <v>-537102.4789382063</v>
       </c>
       <c r="NK2" t="n">
-        <v>716.032559813959</v>
+        <v>716.0325598143979</v>
       </c>
       <c r="NL2" t="n">
-        <v>1004.487930662954</v>
+        <v>1004.487930662889</v>
       </c>
       <c r="NM2" t="n">
-        <v>1.402852310129504</v>
+        <v>1.402852310128552</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.9992718935286017</v>
+        <v>0.9992718935290684</v>
       </c>
       <c r="NO2" t="n">
-        <v>308.6114441709839</v>
+        <v>308.6114441933021</v>
       </c>
       <c r="NP2" t="n">
-        <v>84109.96742054111</v>
+        <v>84109.96741953201</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.188919732901695e-05</v>
+        <v>1.188919732915959e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>59956.3951338374</v>
+        <v>59956.39513315875</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.667878793859695e-05</v>
+        <v>1.667878793878574e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.004235349901866101</v>
+        <v>0.004235349901248915</v>
       </c>
       <c r="NU2" t="n">
-        <v>1.534216843123472e-05</v>
+        <v>1.534216843304773e-05</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.02150523150133546</v>
+        <v>0.02150523150407256</v>
       </c>
       <c r="NW2" t="n">
-        <v>60000.00000032352</v>
+        <v>59999.99999961635</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.8831275048626536</v>
+        <v>0.8831275047243261</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.8831275048626536</v>
+        <v>0.8831275047243261</v>
       </c>
       <c r="NZ2" t="n">
-        <v>295000.8299975574</v>
+        <v>295000.83002207</v>
       </c>
       <c r="OA2" t="n">
-        <v>362941.1893114198</v>
+        <v>362941.1893457735</v>
       </c>
       <c r="OB2" t="n">
-        <v>3799.930415302355</v>
+        <v>3799.930415450776</v>
       </c>
       <c r="OC2" t="n">
-        <v>716.032559813959</v>
+        <v>716.0325598143979</v>
       </c>
       <c r="OD2" t="n">
-        <v>1004.487930662954</v>
+        <v>1004.487930662889</v>
       </c>
       <c r="OE2" t="n">
-        <v>308.6114441709839</v>
+        <v>308.6114441933021</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.9992718935286017</v>
+        <v>0.9992718935290684</v>
       </c>
       <c r="OG2" t="n">
-        <v>1.534216843123472e-05</v>
+        <v>1.534216843304773e-05</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.02150523150133546</v>
+        <v>0.02150523150407256</v>
       </c>
       <c r="OI2" t="inlineStr">
         <is>
@@ -4487,97 +4487,97 @@
         <v>1</v>
       </c>
       <c r="OK2" t="n">
-        <v>245.9907771373392</v>
+        <v>245.9907770740656</v>
       </c>
       <c r="OL2" t="n">
-        <v>68471.84086351136</v>
+        <v>68471.8407667087</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.9703790581905442</v>
+        <v>0.9703790570681148</v>
       </c>
       <c r="ON2" t="n">
-        <v>301524.698507333</v>
+        <v>301524.6984622244</v>
       </c>
       <c r="OO2" t="n">
-        <v>372086.6508553053</v>
+        <v>372086.6507920575</v>
       </c>
       <c r="OP2" t="n">
-        <v>3799.930415310926</v>
+        <v>3799.930415459346</v>
       </c>
       <c r="OQ2" t="n">
-        <v>-562661.1850748417</v>
+        <v>-562661.1849341639</v>
       </c>
       <c r="OR2" t="n">
-        <v>716.204231125987</v>
+        <v>716.2042311245348</v>
       </c>
       <c r="OS2" t="n">
-        <v>1004.719244220351</v>
+        <v>1004.719244217725</v>
       </c>
       <c r="OT2" t="n">
-        <v>1.4028390235014</v>
+        <v>1.402839023500579</v>
       </c>
       <c r="OU2" t="n">
-        <v>0.9992991868080647</v>
+        <v>0.9992991868082171</v>
       </c>
       <c r="OV2" t="n">
-        <v>314.5121001247519</v>
+        <v>314.5121000842577</v>
       </c>
       <c r="OW2" t="n">
-        <v>95987.820916586</v>
+        <v>95987.82078084037</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.041798834946994e-05</v>
+        <v>1.041798836420302e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>68423.97403303361</v>
+        <v>68423.97393630871</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.461476060301937e-05</v>
+        <v>1.461476062367896e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.004078414449545037</v>
+        <v>0.004078414450585184</v>
       </c>
       <c r="PB2" t="n">
-        <v>1.582417315978196e-05</v>
+        <v>1.5824173156461e-05</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.02223537840308377</v>
+        <v>0.02223537839804007</v>
       </c>
       <c r="PD2" t="n">
-        <v>68471.84086351136</v>
+        <v>68471.8407667087</v>
       </c>
       <c r="PE2" t="n">
-        <v>0.9703790581905442</v>
+        <v>0.9703790570681148</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.9703790581905442</v>
+        <v>0.9703790570681148</v>
       </c>
       <c r="PG2" t="n">
-        <v>301524.698507333</v>
+        <v>301524.6984622244</v>
       </c>
       <c r="PH2" t="n">
-        <v>372086.6508553053</v>
+        <v>372086.6507920575</v>
       </c>
       <c r="PI2" t="n">
-        <v>3799.930415310926</v>
+        <v>3799.930415459346</v>
       </c>
       <c r="PJ2" t="n">
-        <v>716.204231125987</v>
+        <v>716.2042311245348</v>
       </c>
       <c r="PK2" t="n">
-        <v>1004.719244220351</v>
+        <v>1004.719244217725</v>
       </c>
       <c r="PL2" t="n">
-        <v>314.5121001247519</v>
+        <v>314.5121000842577</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.9992991868080647</v>
+        <v>0.9992991868082171</v>
       </c>
       <c r="PN2" t="n">
-        <v>1.582417315978196e-05</v>
+        <v>1.5824173156461e-05</v>
       </c>
       <c r="PO2" t="n">
-        <v>0.02223537840308377</v>
+        <v>0.02223537839804007</v>
       </c>
       <c r="PP2" t="inlineStr">
         <is>
@@ -4588,97 +4588,97 @@
         <v>1</v>
       </c>
       <c r="PR2" t="n">
-        <v>268.8328434122302</v>
+        <v>268.8328429755583</v>
       </c>
       <c r="PS2" t="n">
-        <v>93363.3190420199</v>
+        <v>93363.31846640256</v>
       </c>
       <c r="PT2" t="n">
-        <v>1.210603161566677</v>
+        <v>1.210603156071512</v>
       </c>
       <c r="PU2" t="n">
-        <v>317846.7757427018</v>
+        <v>317846.775430683</v>
       </c>
       <c r="PV2" t="n">
-        <v>394968.1000594132</v>
+        <v>394968.0996219835</v>
       </c>
       <c r="PW2" t="n">
-        <v>3799.930415309238</v>
+        <v>3799.930415450775</v>
       </c>
       <c r="PX2" t="n">
-        <v>-626577.998256786</v>
+        <v>-626577.9970729427</v>
       </c>
       <c r="PY2" t="n">
-        <v>716.7955087021925</v>
+        <v>716.795508688275</v>
       </c>
       <c r="PZ2" t="n">
-        <v>1005.462374071058</v>
+        <v>1005.462374053409</v>
       </c>
       <c r="QA2" t="n">
-        <v>1.402718574355351</v>
+        <v>1.402718574357964</v>
       </c>
       <c r="QB2" t="n">
-        <v>0.99939212503914</v>
+        <v>0.9993921250373139</v>
       </c>
       <c r="QC2" t="n">
-        <v>328.8070443568829</v>
+        <v>328.8070440895387</v>
       </c>
       <c r="QD2" t="n">
-        <v>130883.237879938</v>
+        <v>130883.237072998</v>
       </c>
       <c r="QE2" t="n">
-        <v>7.64039777895258e-06</v>
+        <v>7.640397826058244e-06</v>
       </c>
       <c r="QF2" t="n">
-        <v>93306.84021211315</v>
+        <v>93306.83963667079</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.071732788000016e-05</v>
+        <v>1.071732794609611e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.003732514177117922</v>
+        <v>0.003732514183163487</v>
       </c>
       <c r="QI2" t="n">
-        <v>1.700024116419718e-05</v>
+        <v>1.700024114209291e-05</v>
       </c>
       <c r="QJ2" t="n">
-        <v>0.02402642733352127</v>
+        <v>0.02402642729972513</v>
       </c>
       <c r="QK2" t="n">
-        <v>93363.3190420199</v>
+        <v>93363.31846640256</v>
       </c>
       <c r="QL2" t="n">
-        <v>1.210603161566677</v>
+        <v>1.210603156071512</v>
       </c>
       <c r="QM2" t="n">
-        <v>1.210603161566677</v>
+        <v>1.210603156071512</v>
       </c>
       <c r="QN2" t="n">
-        <v>317846.7757427018</v>
+        <v>317846.775430683</v>
       </c>
       <c r="QO2" t="n">
-        <v>394968.1000594132</v>
+        <v>394968.0996219835</v>
       </c>
       <c r="QP2" t="n">
-        <v>3799.930415309238</v>
+        <v>3799.930415450775</v>
       </c>
       <c r="QQ2" t="n">
-        <v>716.7955087021925</v>
+        <v>716.795508688275</v>
       </c>
       <c r="QR2" t="n">
-        <v>1005.462374071058</v>
+        <v>1005.462374053409</v>
       </c>
       <c r="QS2" t="n">
-        <v>328.8070443568829</v>
+        <v>328.8070440895387</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.99939212503914</v>
+        <v>0.9993921250373139</v>
       </c>
       <c r="QU2" t="n">
-        <v>1.700024116419718e-05</v>
+        <v>1.700024114209291e-05</v>
       </c>
       <c r="QV2" t="n">
-        <v>0.02402642733352127</v>
+        <v>0.02402642729972513</v>
       </c>
       <c r="QW2" t="inlineStr">
         <is>
@@ -4689,46 +4689,46 @@
         <v>1</v>
       </c>
       <c r="QY2" t="n">
-        <v>0.4382337134421225</v>
+        <v>0.4382337110743917</v>
       </c>
       <c r="QZ2" t="n">
-        <v>0.8200880729168186</v>
+        <v>0.8200880668172184</v>
       </c>
       <c r="RA2" t="n">
-        <v>379650.1700220376</v>
+        <v>379650.1671214247</v>
       </c>
       <c r="RB2" t="n">
-        <v>2.740246981964861</v>
+        <v>2.740246986729423</v>
       </c>
       <c r="RC2" t="n">
-        <v>381305.5260942932</v>
+        <v>381305.5256569637</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.02447288182510375</v>
+        <v>0.02447288244214305</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.001918869700581695</v>
+        <v>0.001918870061643048</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.01189012430636568</v>
+        <v>0.01189012425402965</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.03198084303909954</v>
+        <v>0.03198084342480764</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.0423764646599041</v>
+        <v>0.04237646494410986</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.1126391835310548</v>
+        <v>0.1126391851267333</v>
       </c>
       <c r="RJ2" t="n">
-        <v>2.493089068522636e-12</v>
+        <v>1.156520712530806e-11</v>
       </c>
       <c r="RK2" t="n">
         <v>0</v>
       </c>
       <c r="RL2" t="n">
-        <v>360274.8525804025</v>
+        <v>360274.8526044138</v>
       </c>
     </row>
     <row r="3">
@@ -4739,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>80.70591942055253</v>
+        <v>80.70591931358855</v>
       </c>
       <c r="D3" t="n">
-        <v>80.70591942055253</v>
+        <v>80.70591931358855</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4751,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80.70591942055253</v>
+        <v>80.70591931358855</v>
       </c>
       <c r="H3" t="n">
-        <v>80.70591942055253</v>
+        <v>80.70591931358855</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4763,97 +4763,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.3528032877743</v>
+        <v>292.3528032961822</v>
       </c>
       <c r="L3" t="n">
-        <v>132773.0182979989</v>
+        <v>132773.018311346</v>
       </c>
       <c r="M3" t="n">
-        <v>1.582939878923154</v>
+        <v>1.582939879036663</v>
       </c>
       <c r="N3" t="n">
-        <v>334650.2218906921</v>
+        <v>334650.2218967067</v>
       </c>
       <c r="O3" t="n">
-        <v>418527.7083738313</v>
+        <v>418527.7083822631</v>
       </c>
       <c r="P3" t="n">
-        <v>3782.91734771824</v>
+        <v>3782.917347718239</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687418.7828375483</v>
+        <v>-687418.7828609224</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7129246618767</v>
+        <v>717.7129246622573</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.647680589936</v>
+        <v>1006.647680590377</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402577055532586</v>
+        <v>1.402577055532457</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994979670300081</v>
+        <v>0.9994979670300669</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9084201800418</v>
+        <v>342.9084201849773</v>
       </c>
       <c r="W3" t="n">
-        <v>186131.8608618368</v>
+        <v>186131.8608805419</v>
       </c>
       <c r="X3" t="n">
-        <v>5.372535337957463e-06</v>
+        <v>5.372535337417556e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132707.0481636811</v>
+        <v>132707.0481770295</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.535394795057143e-06</v>
+        <v>7.535394794299191e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.00343345593056186</v>
+        <v>0.003433455930463276</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817142688316626e-05</v>
+        <v>1.817142688357765e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02582433232293755</v>
+        <v>0.02582433232357121</v>
       </c>
       <c r="AD3" t="n">
-        <v>132773.0182979989</v>
+        <v>132773.018311346</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.582939878923154</v>
+        <v>1.582939879036663</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582939878923154</v>
+        <v>1.582939879036663</v>
       </c>
       <c r="AG3" t="n">
-        <v>334650.2218906921</v>
+        <v>334650.2218967067</v>
       </c>
       <c r="AH3" t="n">
-        <v>418527.7083738313</v>
+        <v>418527.7083822631</v>
       </c>
       <c r="AI3" t="n">
-        <v>3782.91734771824</v>
+        <v>3782.917347718239</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7129246618767</v>
+        <v>717.7129246622573</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.647680589936</v>
+        <v>1006.647680590377</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9084201800418</v>
+        <v>342.9084201849773</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994979670300081</v>
+        <v>0.9994979670300669</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817142688316626e-05</v>
+        <v>1.817142688357765e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02582433232293755</v>
+        <v>0.02582433232357121</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5066,16 +5066,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2353570652426045</v>
+        <v>0.2353570649272854</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2353570652426045</v>
+        <v>0.2353570649272854</v>
       </c>
       <c r="DH3" t="n">
-        <v>183915.578926896</v>
+        <v>183915.5786921671</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.742649143048307</v>
+        <v>2.742649139609993</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5129,121 +5129,121 @@
         <v>0</v>
       </c>
       <c r="DU3" t="n">
-        <v>270.1969694812752</v>
+        <v>270.196969784023</v>
       </c>
       <c r="DV3" t="n">
-        <v>111.1593494336828</v>
+        <v>111.1593493851009</v>
       </c>
       <c r="DW3" t="n">
-        <v>246.2722098620662</v>
+        <v>246.2722102161535</v>
       </c>
       <c r="DX3" t="n">
-        <v>65.70711543977737</v>
+        <v>65.70711548005707</v>
       </c>
       <c r="DY3" t="n">
-        <v>270.1969694812752</v>
+        <v>270.196969784023</v>
       </c>
       <c r="DZ3" t="n">
-        <v>111.1593494336828</v>
+        <v>111.1593493851009</v>
       </c>
       <c r="EA3" t="n">
-        <v>246.2722098620662</v>
+        <v>246.2722102161535</v>
       </c>
       <c r="EB3" t="n">
-        <v>65.70711543977737</v>
+        <v>65.70711548005707</v>
       </c>
       <c r="EC3" t="n">
-        <v>259.1741885470493</v>
+        <v>259.1741884653829</v>
       </c>
       <c r="ED3" t="n">
-        <v>85443.19271839899</v>
+        <v>85443.19262116074</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.149274613129567</v>
+        <v>1.149274612184159</v>
       </c>
       <c r="EF3" t="n">
-        <v>310935.9065911706</v>
+        <v>310935.9065328263</v>
       </c>
       <c r="EG3" t="n">
-        <v>385281.2299301507</v>
+        <v>385281.2298483555</v>
       </c>
       <c r="EH3" t="n">
-        <v>3788.663779732971</v>
+        <v>3788.663779743826</v>
       </c>
       <c r="EI3" t="n">
-        <v>-596642.630859739</v>
+        <v>-596642.6306349409</v>
       </c>
       <c r="EJ3" t="n">
-        <v>716.5266251435705</v>
+        <v>716.5266251413817</v>
       </c>
       <c r="EK3" t="n">
-        <v>1005.190956694422</v>
+        <v>1005.190956691606</v>
       </c>
       <c r="EL3" t="n">
-        <v>1.402866162151353</v>
+        <v>1.402866162151708</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.9993225259965147</v>
+        <v>0.9993225259961844</v>
       </c>
       <c r="EN3" t="n">
-        <v>322.8407492405856</v>
+        <v>322.8407491896551</v>
       </c>
       <c r="EO3" t="n">
-        <v>119784.4674954471</v>
+        <v>119784.4673591172</v>
       </c>
       <c r="EP3" t="n">
-        <v>8.348327799996345e-06</v>
+        <v>8.348327809497805e-06</v>
       </c>
       <c r="EQ3" t="n">
-        <v>85385.52766270502</v>
+        <v>85385.52756550377</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.171158658116232e-05</v>
+        <v>1.171158659449456e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.003871867276775446</v>
+        <v>0.003871867277992566</v>
       </c>
       <c r="ET3" t="n">
-        <v>1.650844020199097e-05</v>
+        <v>1.650844019779704e-05</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.02327624547433651</v>
+        <v>0.02327624546794501</v>
       </c>
       <c r="EV3" t="n">
-        <v>85443.19271839899</v>
+        <v>85443.19262116074</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.149274613129567</v>
+        <v>1.149274612184159</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.149274613129567</v>
+        <v>1.149274612184159</v>
       </c>
       <c r="EY3" t="n">
-        <v>310935.9065911706</v>
+        <v>310935.9065328263</v>
       </c>
       <c r="EZ3" t="n">
-        <v>385281.2299301507</v>
+        <v>385281.2298483555</v>
       </c>
       <c r="FA3" t="n">
-        <v>3788.663779732971</v>
+        <v>3788.663779743826</v>
       </c>
       <c r="FB3" t="n">
-        <v>716.5266251435705</v>
+        <v>716.5266251413817</v>
       </c>
       <c r="FC3" t="n">
-        <v>1005.190956694422</v>
+        <v>1005.190956691606</v>
       </c>
       <c r="FD3" t="n">
-        <v>322.8407492405856</v>
+        <v>322.8407491896551</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.9993225259965147</v>
+        <v>0.9993225259961844</v>
       </c>
       <c r="FF3" t="n">
-        <v>1.650844020199097e-05</v>
+        <v>1.650844019779704e-05</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.02327624547433651</v>
+        <v>0.02327624546794501</v>
       </c>
       <c r="FH3" t="inlineStr">
         <is>
@@ -5254,97 +5254,97 @@
         <v>1</v>
       </c>
       <c r="FJ3" t="n">
-        <v>295.5936554165061</v>
+        <v>295.5936554164941</v>
       </c>
       <c r="FK3" t="n">
-        <v>135263.5641087657</v>
+        <v>135263.5641036486</v>
       </c>
       <c r="FL3" t="n">
-        <v>1.594900121328391</v>
+        <v>1.594900121268091</v>
       </c>
       <c r="FM3" t="n">
-        <v>336974.3779072628</v>
+        <v>336974.3779072646</v>
       </c>
       <c r="FN3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="FO3" t="n">
-        <v>3788.663779738173</v>
+        <v>3788.663779749027</v>
       </c>
       <c r="FP3" t="n">
-        <v>-698120.5447083333</v>
+        <v>-698120.5447114962</v>
       </c>
       <c r="FQ3" t="n">
-        <v>717.856108831383</v>
+        <v>717.8561088313696</v>
       </c>
       <c r="FR3" t="n">
-        <v>1006.776654762785</v>
+        <v>1006.7766547627</v>
       </c>
       <c r="FS3" t="n">
-        <v>1.40247696213346</v>
+        <v>1.402476962133369</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.9995303767051137</v>
+        <v>0.999530376705131</v>
       </c>
       <c r="FU3" t="n">
-        <v>344.8027143550977</v>
+        <v>344.8027143550854</v>
       </c>
       <c r="FV3" t="n">
-        <v>189615.9398969134</v>
+        <v>189615.9398897309</v>
       </c>
       <c r="FW3" t="n">
-        <v>5.273818227221085e-06</v>
+        <v>5.273818227420855e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>135200.751967054</v>
+        <v>135200.7519619415</v>
       </c>
       <c r="FY3" t="n">
-        <v>7.396408566157101e-06</v>
+        <v>7.39640856643679e-06</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.003395618189365691</v>
+        <v>0.003395618189365355</v>
       </c>
       <c r="GA3" t="n">
-        <v>1.832924920426352e-05</v>
+        <v>1.83292492042622e-05</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.02606728356294856</v>
+        <v>0.02606728356294602</v>
       </c>
       <c r="GC3" t="n">
-        <v>135263.5641087657</v>
+        <v>135263.5641036486</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.594900121328391</v>
+        <v>1.594900121268091</v>
       </c>
       <c r="GE3" t="n">
-        <v>1.594900121328391</v>
+        <v>1.594900121268091</v>
       </c>
       <c r="GF3" t="n">
-        <v>336974.3779072628</v>
+        <v>336974.3779072646</v>
       </c>
       <c r="GG3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GH3" t="n">
-        <v>3788.663779738173</v>
+        <v>3788.663779749027</v>
       </c>
       <c r="GI3" t="n">
-        <v>717.856108831383</v>
+        <v>717.8561088313696</v>
       </c>
       <c r="GJ3" t="n">
-        <v>1006.776654762785</v>
+        <v>1006.7766547627</v>
       </c>
       <c r="GK3" t="n">
-        <v>344.8027143550977</v>
+        <v>344.8027143550854</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.9995303767051137</v>
+        <v>0.999530376705131</v>
       </c>
       <c r="GM3" t="n">
-        <v>1.832924920426352e-05</v>
+        <v>1.83292492042622e-05</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.02606728356294856</v>
+        <v>0.02606728356294602</v>
       </c>
       <c r="GO3" t="inlineStr">
         <is>
@@ -5355,97 +5355,97 @@
         <v>1</v>
       </c>
       <c r="GQ3" t="n">
-        <v>295.5936554165061</v>
+        <v>295.5936554164941</v>
       </c>
       <c r="GR3" t="n">
-        <v>135263.5641087657</v>
+        <v>135263.5641036486</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.594900121328391</v>
+        <v>1.594900121268091</v>
       </c>
       <c r="GT3" t="n">
-        <v>336974.3779072628</v>
+        <v>336974.3779072646</v>
       </c>
       <c r="GU3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GV3" t="n">
-        <v>3788.663779738173</v>
+        <v>3788.663779749027</v>
       </c>
       <c r="GW3" t="n">
-        <v>-698120.5447083333</v>
+        <v>-698120.5447114962</v>
       </c>
       <c r="GX3" t="n">
-        <v>717.856108831383</v>
+        <v>717.8561088313696</v>
       </c>
       <c r="GY3" t="n">
-        <v>1006.776654762785</v>
+        <v>1006.7766547627</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.40247696213346</v>
+        <v>1.402476962133369</v>
       </c>
       <c r="HA3" t="n">
-        <v>0.9995303767051137</v>
+        <v>0.999530376705131</v>
       </c>
       <c r="HB3" t="n">
-        <v>344.8027143550977</v>
+        <v>344.8027143550854</v>
       </c>
       <c r="HC3" t="n">
-        <v>189615.9398969134</v>
+        <v>189615.9398897309</v>
       </c>
       <c r="HD3" t="n">
-        <v>5.273818227221085e-06</v>
+        <v>5.273818227420855e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>135200.751967054</v>
+        <v>135200.7519619415</v>
       </c>
       <c r="HF3" t="n">
-        <v>7.396408566157101e-06</v>
+        <v>7.39640856643679e-06</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.003395618189365691</v>
+        <v>0.003395618189365355</v>
       </c>
       <c r="HH3" t="n">
-        <v>1.832924920426352e-05</v>
+        <v>1.83292492042622e-05</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.02606728356294856</v>
+        <v>0.02606728356294602</v>
       </c>
       <c r="HJ3" t="n">
-        <v>135263.5641087657</v>
+        <v>135263.5641036486</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.594900121328391</v>
+        <v>1.594900121268091</v>
       </c>
       <c r="HL3" t="n">
-        <v>1.594900121328391</v>
+        <v>1.594900121268091</v>
       </c>
       <c r="HM3" t="n">
-        <v>336974.3779072628</v>
+        <v>336974.3779072646</v>
       </c>
       <c r="HN3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="HO3" t="n">
-        <v>3788.663779738173</v>
+        <v>3788.663779749027</v>
       </c>
       <c r="HP3" t="n">
-        <v>717.856108831383</v>
+        <v>717.8561088313696</v>
       </c>
       <c r="HQ3" t="n">
-        <v>1006.776654762785</v>
+        <v>1006.7766547627</v>
       </c>
       <c r="HR3" t="n">
-        <v>344.8027143550977</v>
+        <v>344.8027143550854</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.9995303767051137</v>
+        <v>0.999530376705131</v>
       </c>
       <c r="HT3" t="n">
-        <v>1.832924920426352e-05</v>
+        <v>1.83292492042622e-05</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.02606728356294856</v>
+        <v>0.02606728356294602</v>
       </c>
       <c r="HV3" t="inlineStr">
         <is>
@@ -5456,166 +5456,166 @@
         <v>1</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.836935765131435</v>
+        <v>0.8369357662012296</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.836935765131435</v>
+        <v>0.8369357662012296</v>
       </c>
       <c r="HZ3" t="n">
-        <v>492080.308025413</v>
+        <v>492080.3082969946</v>
       </c>
       <c r="IA3" t="n">
-        <v>2.742649143052149</v>
+        <v>2.742649139597344</v>
       </c>
       <c r="IB3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.01595100147446105</v>
+        <v>0.01595100151302524</v>
       </c>
       <c r="ID3" t="n">
-        <v>-1.793991203538989e-07</v>
+        <v>-1.793991200322589e-07</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.01379123038059478</v>
+        <v>0.01379123038188909</v>
       </c>
       <c r="IF3" t="n">
-        <v>0.02518399104906791</v>
+        <v>0.02518399103202515</v>
       </c>
       <c r="IG3" t="n">
         <v>0</v>
       </c>
       <c r="IH3" t="n">
-        <v>0.05492604350500339</v>
+        <v>0.05492604352781945</v>
       </c>
       <c r="II3" t="n">
-        <v>1.548761119352093e-14</v>
+        <v>-2.164977225271869e-11</v>
       </c>
       <c r="IJ3" t="n">
         <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>383796.1520500655</v>
+        <v>383796.1519659408</v>
       </c>
       <c r="IL3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM3" t="n">
-        <v>270.1969694812752</v>
+        <v>270.196969784023</v>
       </c>
       <c r="IN3" t="n">
-        <v>111.1593494336828</v>
+        <v>111.1593493851009</v>
       </c>
       <c r="IO3" t="n">
-        <v>246.2722098620662</v>
+        <v>246.2722102161535</v>
       </c>
       <c r="IP3" t="n">
-        <v>65.70711543977737</v>
+        <v>65.70711548005707</v>
       </c>
       <c r="IQ3" t="n">
-        <v>137.5222946454973</v>
+        <v>137.5222948147045</v>
       </c>
       <c r="IR3" t="n">
-        <v>111.1593494336828</v>
+        <v>111.1593493851009</v>
       </c>
       <c r="IS3" t="n">
-        <v>80.9690098620662</v>
+        <v>80.96901021615349</v>
       </c>
       <c r="IT3" t="n">
-        <v>36.06977652328487</v>
+        <v>36.06977665444489</v>
       </c>
       <c r="IU3" t="n">
-        <v>259.1741885469557</v>
+        <v>259.174188465483</v>
       </c>
       <c r="IV3" t="n">
-        <v>85443.19272043742</v>
+        <v>85443.19262127567</v>
       </c>
       <c r="IW3" t="n">
-        <v>1.149274613157421</v>
+        <v>1.149274612185261</v>
       </c>
       <c r="IX3" t="n">
-        <v>310935.9065910985</v>
+        <v>310935.9065328977</v>
       </c>
       <c r="IY3" t="n">
-        <v>385281.2299300505</v>
+        <v>385281.2298484556</v>
       </c>
       <c r="IZ3" t="n">
-        <v>3788.663779725741</v>
+        <v>3788.663779743826</v>
       </c>
       <c r="JA3" t="n">
-        <v>-596642.6308576106</v>
+        <v>-596642.63063522</v>
       </c>
       <c r="JB3" t="n">
-        <v>716.5266251435755</v>
+        <v>716.5266251413847</v>
       </c>
       <c r="JC3" t="n">
-        <v>1005.190956694467</v>
+        <v>1005.19095669161</v>
       </c>
       <c r="JD3" t="n">
-        <v>1.402866162151406</v>
+        <v>1.402866162151708</v>
       </c>
       <c r="JE3" t="n">
-        <v>0.9993225259964974</v>
+        <v>0.9993225259961849</v>
       </c>
       <c r="JF3" t="n">
-        <v>322.8407492405278</v>
+        <v>322.8407491897175</v>
       </c>
       <c r="JG3" t="n">
-        <v>119784.4674983073</v>
+        <v>119784.4673592783</v>
       </c>
       <c r="JH3" t="n">
-        <v>8.348327799797006e-06</v>
+        <v>8.348327809486577e-06</v>
       </c>
       <c r="JI3" t="n">
-        <v>85385.52766474061</v>
+        <v>85385.52756561864</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.171158658088311e-05</v>
+        <v>1.171158659447881e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.00387186727677718</v>
+        <v>0.003871867277991075</v>
       </c>
       <c r="JL3" t="n">
-        <v>1.650844020198648e-05</v>
+        <v>1.650844019780219e-05</v>
       </c>
       <c r="JM3" t="n">
-        <v>0.02327624547432998</v>
+        <v>0.02327624546795284</v>
       </c>
       <c r="JN3" t="n">
-        <v>85443.19272043742</v>
+        <v>85443.19262127567</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.149274613157421</v>
+        <v>1.149274612185261</v>
       </c>
       <c r="JP3" t="n">
-        <v>1.149274613157421</v>
+        <v>1.149274612185261</v>
       </c>
       <c r="JQ3" t="n">
-        <v>310935.9065910985</v>
+        <v>310935.9065328977</v>
       </c>
       <c r="JR3" t="n">
-        <v>385281.2299300505</v>
+        <v>385281.2298484556</v>
       </c>
       <c r="JS3" t="n">
-        <v>3788.663779725741</v>
+        <v>3788.663779743826</v>
       </c>
       <c r="JT3" t="n">
-        <v>716.5266251435755</v>
+        <v>716.5266251413847</v>
       </c>
       <c r="JU3" t="n">
-        <v>1005.190956694467</v>
+        <v>1005.19095669161</v>
       </c>
       <c r="JV3" t="n">
-        <v>322.8407492405278</v>
+        <v>322.8407491897175</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.9993225259964974</v>
+        <v>0.9993225259961849</v>
       </c>
       <c r="JX3" t="n">
-        <v>1.650844020198648e-05</v>
+        <v>1.650844019780219e-05</v>
       </c>
       <c r="JY3" t="n">
-        <v>0.02327624547432998</v>
+        <v>0.02327624546795284</v>
       </c>
       <c r="JZ3" t="inlineStr">
         <is>
@@ -5626,97 +5626,97 @@
         <v>1</v>
       </c>
       <c r="KB3" t="n">
-        <v>295.5936554166061</v>
+        <v>295.5936554164941</v>
       </c>
       <c r="KC3" t="n">
-        <v>135263.5641089173</v>
+        <v>135263.5641036482</v>
       </c>
       <c r="KD3" t="n">
-        <v>1.594900121329638</v>
+        <v>1.594900121268087</v>
       </c>
       <c r="KE3" t="n">
-        <v>336974.3779073344</v>
+        <v>336974.3779072646</v>
       </c>
       <c r="KF3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="KG3" t="n">
-        <v>3788.663779738191</v>
+        <v>3788.663779749028</v>
       </c>
       <c r="KH3" t="n">
-        <v>-698120.544708617</v>
+        <v>-698120.5447114964</v>
       </c>
       <c r="KI3" t="n">
-        <v>717.8561088313877</v>
+        <v>717.8561088313696</v>
       </c>
       <c r="KJ3" t="n">
-        <v>1006.77665476279</v>
+        <v>1006.7766547627</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.402476962133458</v>
+        <v>1.402476962133369</v>
       </c>
       <c r="KL3" t="n">
-        <v>0.9995303767051144</v>
+        <v>0.999530376705131</v>
       </c>
       <c r="KM3" t="n">
-        <v>344.802714355156</v>
+        <v>344.8027143550854</v>
       </c>
       <c r="KN3" t="n">
-        <v>189615.9398971258</v>
+        <v>189615.9398897304</v>
       </c>
       <c r="KO3" t="n">
-        <v>5.273818227215181e-06</v>
+        <v>5.273818227420868e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>135200.7519672056</v>
+        <v>135200.7519619412</v>
       </c>
       <c r="KQ3" t="n">
-        <v>7.396408566148808e-06</v>
+        <v>7.396408566436811e-06</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.003395618189364544</v>
+        <v>0.003395618189365355</v>
       </c>
       <c r="KS3" t="n">
-        <v>1.832924920426839e-05</v>
+        <v>1.83292492042622e-05</v>
       </c>
       <c r="KT3" t="n">
-        <v>0.02606728356295607</v>
+        <v>0.02606728356294602</v>
       </c>
       <c r="KU3" t="n">
-        <v>135263.5641089173</v>
+        <v>135263.5641036482</v>
       </c>
       <c r="KV3" t="n">
-        <v>1.594900121329638</v>
+        <v>1.594900121268087</v>
       </c>
       <c r="KW3" t="n">
-        <v>1.594900121329638</v>
+        <v>1.594900121268087</v>
       </c>
       <c r="KX3" t="n">
-        <v>336974.3779073344</v>
+        <v>336974.3779072646</v>
       </c>
       <c r="KY3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="KZ3" t="n">
-        <v>3788.663779738191</v>
+        <v>3788.663779749028</v>
       </c>
       <c r="LA3" t="n">
-        <v>717.8561088313877</v>
+        <v>717.8561088313696</v>
       </c>
       <c r="LB3" t="n">
-        <v>1006.77665476279</v>
+        <v>1006.7766547627</v>
       </c>
       <c r="LC3" t="n">
-        <v>344.802714355156</v>
+        <v>344.8027143550854</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.9995303767051144</v>
+        <v>0.999530376705131</v>
       </c>
       <c r="LE3" t="n">
-        <v>1.832924920426839e-05</v>
+        <v>1.83292492042622e-05</v>
       </c>
       <c r="LF3" t="n">
-        <v>0.02606728356295607</v>
+        <v>0.02606728356294602</v>
       </c>
       <c r="LG3" t="inlineStr">
         <is>
@@ -5727,97 +5727,97 @@
         <v>1</v>
       </c>
       <c r="LI3" t="n">
-        <v>268.6131313278239</v>
+        <v>268.6131312694966</v>
       </c>
       <c r="LJ3" t="n">
-        <v>96812.91184506043</v>
+        <v>96812.91176799031</v>
       </c>
       <c r="LK3" t="n">
-        <v>1.256391133375329</v>
+        <v>1.256391132648306</v>
       </c>
       <c r="LL3" t="n">
-        <v>317681.0731320293</v>
+        <v>317681.0730903504</v>
       </c>
       <c r="LM3" t="n">
-        <v>394737.4206923387</v>
+        <v>394737.4206339068</v>
       </c>
       <c r="LN3" t="n">
-        <v>3788.663779739621</v>
+        <v>3788.663779750456</v>
       </c>
       <c r="LO3" t="n">
-        <v>-622947.4207318299</v>
+        <v>-622947.4205721898</v>
       </c>
       <c r="LP3" t="n">
-        <v>716.8005541539674</v>
+        <v>716.8005541521211</v>
       </c>
       <c r="LQ3" t="n">
-        <v>1005.530554848271</v>
+        <v>1005.530554845954</v>
       </c>
       <c r="LR3" t="n">
-        <v>1.40280381902758</v>
+        <v>1.402803819027961</v>
       </c>
       <c r="LS3" t="n">
-        <v>0.9993668746944936</v>
+        <v>0.999366874694223</v>
       </c>
       <c r="LT3" t="n">
-        <v>328.6743721609675</v>
+        <v>328.6743721252379</v>
       </c>
       <c r="LU3" t="n">
-        <v>135723.9676054458</v>
+        <v>135723.9674973992</v>
       </c>
       <c r="LV3" t="n">
-        <v>7.367895425125165e-06</v>
+        <v>7.36789543099057e-06</v>
       </c>
       <c r="LW3" t="n">
-        <v>96751.9233726704</v>
+        <v>96751.92329562227</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.033571184056141e-05</v>
+        <v>1.033571184879223e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.003736069649110547</v>
+        <v>0.003736069649919777</v>
       </c>
       <c r="LZ3" t="n">
-        <v>1.698968614751119e-05</v>
+        <v>1.698968614455771e-05</v>
       </c>
       <c r="MA3" t="n">
-        <v>0.02401074689876679</v>
+        <v>0.02401074689425159</v>
       </c>
       <c r="MB3" t="n">
-        <v>96812.91184506043</v>
+        <v>96812.91176799031</v>
       </c>
       <c r="MC3" t="n">
-        <v>1.256391133375329</v>
+        <v>1.256391132648306</v>
       </c>
       <c r="MD3" t="n">
-        <v>1.256391133375329</v>
+        <v>1.256391132648306</v>
       </c>
       <c r="ME3" t="n">
-        <v>317681.0731320293</v>
+        <v>317681.0730903504</v>
       </c>
       <c r="MF3" t="n">
-        <v>394737.4206923387</v>
+        <v>394737.4206339068</v>
       </c>
       <c r="MG3" t="n">
-        <v>3788.663779739621</v>
+        <v>3788.663779750456</v>
       </c>
       <c r="MH3" t="n">
-        <v>716.8005541539674</v>
+        <v>716.8005541521211</v>
       </c>
       <c r="MI3" t="n">
-        <v>1005.530554848271</v>
+        <v>1005.530554845954</v>
       </c>
       <c r="MJ3" t="n">
-        <v>328.6743721609675</v>
+        <v>328.6743721252379</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.9993668746944936</v>
+        <v>0.999366874694223</v>
       </c>
       <c r="ML3" t="n">
-        <v>1.698968614751119e-05</v>
+        <v>1.698968614455771e-05</v>
       </c>
       <c r="MM3" t="n">
-        <v>0.02401074689876679</v>
+        <v>0.02401074689425159</v>
       </c>
       <c r="MN3" t="inlineStr">
         <is>
@@ -5828,139 +5828,139 @@
         <v>1</v>
       </c>
       <c r="MP3" t="n">
-        <v>0.8369357651315849</v>
+        <v>0.8369357662010679</v>
       </c>
       <c r="MQ3" t="n">
-        <v>0.4259756395963457</v>
+        <v>0.4259756401875078</v>
       </c>
       <c r="MR3" t="n">
-        <v>249496.9805737901</v>
+        <v>249496.9807329624</v>
       </c>
       <c r="MS3" t="n">
-        <v>2.74264914311862</v>
+        <v>2.742649139599973</v>
       </c>
       <c r="MT3" t="n">
-        <v>381074.8467273187</v>
+        <v>381074.8466687868</v>
       </c>
       <c r="MU3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV3" t="n">
-        <v>142.5910606161458</v>
+        <v>142.5910603925035</v>
       </c>
       <c r="MW3" t="n">
-        <v>127.2269066748235</v>
+        <v>127.2269065188298</v>
       </c>
       <c r="MX3" t="n">
-        <v>-64.38574986433829</v>
+        <v>-64.38574967729659</v>
       </c>
       <c r="MY3" t="n">
-        <v>-26.84261387933775</v>
+        <v>-26.84261384058214</v>
       </c>
       <c r="MZ3" t="n">
-        <v>262.5713226379201</v>
+        <v>262.5713223987166</v>
       </c>
       <c r="NA3" t="n">
-        <v>127.2269066748235</v>
+        <v>127.2269065188298</v>
       </c>
       <c r="NB3" t="n">
-        <v>-229.6889498643383</v>
+        <v>-229.6889496772966</v>
       </c>
       <c r="NC3" t="n">
-        <v>-61.01751197032146</v>
+        <v>-61.01751198032173</v>
       </c>
       <c r="ND3" t="n">
-        <v>234.1851361097609</v>
+        <v>234.1851361140116</v>
       </c>
       <c r="NE3" t="n">
-        <v>57500.00000001317</v>
+        <v>57499.99999829062</v>
       </c>
       <c r="NF3" t="n">
-        <v>0.8559939624867721</v>
+        <v>0.8559939624455241</v>
       </c>
       <c r="NG3" t="n">
-        <v>293092.1999751666</v>
+        <v>293092.1999782177</v>
       </c>
       <c r="NH3" t="n">
-        <v>360265.5709566258</v>
+        <v>360265.5709609015</v>
       </c>
       <c r="NI3" t="n">
-        <v>3800.777671006459</v>
+        <v>3800.77767103331</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-529820.0652509619</v>
+        <v>-529820.06526913</v>
       </c>
       <c r="NK3" t="n">
-        <v>715.9876087270796</v>
+        <v>715.9876087271219</v>
       </c>
       <c r="NL3" t="n">
-        <v>1004.421565411417</v>
+        <v>1004.421565411357</v>
       </c>
       <c r="NM3" t="n">
-        <v>1.402847693407893</v>
+        <v>1.402847693407727</v>
       </c>
       <c r="NN3" t="n">
-        <v>0.9992670944441728</v>
+        <v>0.9992670944442518</v>
       </c>
       <c r="NO3" t="n">
-        <v>306.8632621333213</v>
+        <v>306.8632621361122</v>
       </c>
       <c r="NP3" t="n">
-        <v>80604.72424711523</v>
+        <v>80604.72424469734</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.240622071895233e-05</v>
+        <v>1.240622071932447e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>57457.92977091102</v>
+        <v>57457.92976919426</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.740403811949149e-05</v>
+        <v>1.740403812001149e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.004283550528157071</v>
+        <v>0.004283550528078224</v>
       </c>
       <c r="NU3" t="n">
-        <v>1.51997449421659e-05</v>
+        <v>1.519974494239197e-05</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.02128989151242043</v>
+        <v>0.02128989151276116</v>
       </c>
       <c r="NW3" t="n">
-        <v>57500.00000001317</v>
+        <v>57499.99999829062</v>
       </c>
       <c r="NX3" t="n">
-        <v>0.8559939624867721</v>
+        <v>0.8559939624455241</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.8559939624867721</v>
+        <v>0.8559939624455241</v>
       </c>
       <c r="NZ3" t="n">
-        <v>293092.1999751666</v>
+        <v>293092.1999782177</v>
       </c>
       <c r="OA3" t="n">
-        <v>360265.5709566258</v>
+        <v>360265.5709609015</v>
       </c>
       <c r="OB3" t="n">
-        <v>3800.777671006459</v>
+        <v>3800.77767103331</v>
       </c>
       <c r="OC3" t="n">
-        <v>715.9876087270796</v>
+        <v>715.9876087271219</v>
       </c>
       <c r="OD3" t="n">
-        <v>1004.421565411417</v>
+        <v>1004.421565411357</v>
       </c>
       <c r="OE3" t="n">
-        <v>306.8632621333213</v>
+        <v>306.8632621361122</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.9992670944441728</v>
+        <v>0.9992670944442518</v>
       </c>
       <c r="OG3" t="n">
-        <v>1.51997449421659e-05</v>
+        <v>1.519974494239197e-05</v>
       </c>
       <c r="OH3" t="n">
-        <v>0.02128989151242043</v>
+        <v>0.02128989151276116</v>
       </c>
       <c r="OI3" t="inlineStr">
         <is>
@@ -5971,97 +5971,97 @@
         <v>1</v>
       </c>
       <c r="OK3" t="n">
-        <v>244.33752678468</v>
+        <v>244.337526757085</v>
       </c>
       <c r="OL3" t="n">
-        <v>66682.02875596558</v>
+        <v>66682.02872345236</v>
       </c>
       <c r="OM3" t="n">
-        <v>0.9514112694884862</v>
+        <v>0.9514112691320624</v>
       </c>
       <c r="ON3" t="n">
-        <v>300344.1852734652</v>
+        <v>300344.1852537688</v>
       </c>
       <c r="OO3" t="n">
-        <v>370431.6762402438</v>
+        <v>370431.6762126302</v>
       </c>
       <c r="OP3" t="n">
-        <v>3800.777671015135</v>
+        <v>3800.777671041984</v>
       </c>
       <c r="OQ3" t="n">
-        <v>-558240.9397540304</v>
+        <v>-558240.939683322</v>
       </c>
       <c r="OR3" t="n">
-        <v>716.169832314841</v>
+        <v>716.1698323142638</v>
       </c>
       <c r="OS3" t="n">
-        <v>1004.669713452797</v>
+        <v>1004.669713451904</v>
       </c>
       <c r="OT3" t="n">
-        <v>1.402837243514506</v>
+        <v>1.402837243514389</v>
       </c>
       <c r="OU3" t="n">
-        <v>0.9992959090477337</v>
+        <v>0.9992959090477117</v>
       </c>
       <c r="OV3" t="n">
-        <v>313.4521947799407</v>
+        <v>313.4521947622202</v>
       </c>
       <c r="OW3" t="n">
-        <v>93478.32493444139</v>
+        <v>93478.32488885266</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.069766708701e-05</v>
+        <v>1.069766709222718e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>66635.18905461307</v>
+        <v>66635.18902212111</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.500708580837697e-05</v>
+        <v>1.500708581569457e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.004105916008011041</v>
+        <v>0.004105916008472599</v>
       </c>
       <c r="PB3" t="n">
-        <v>1.573740359743538e-05</v>
+        <v>1.573740359598474e-05</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.02210374184772934</v>
+        <v>0.02210374184552879</v>
       </c>
       <c r="PD3" t="n">
-        <v>66682.02875596558</v>
+        <v>66682.02872345236</v>
       </c>
       <c r="PE3" t="n">
-        <v>0.9514112694884862</v>
+        <v>0.9514112691320624</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.9514112694884862</v>
+        <v>0.9514112691320624</v>
       </c>
       <c r="PG3" t="n">
-        <v>300344.1852734652</v>
+        <v>300344.1852537688</v>
       </c>
       <c r="PH3" t="n">
-        <v>370431.6762402438</v>
+        <v>370431.6762126302</v>
       </c>
       <c r="PI3" t="n">
-        <v>3800.777671015135</v>
+        <v>3800.777671041984</v>
       </c>
       <c r="PJ3" t="n">
-        <v>716.169832314841</v>
+        <v>716.1698323142638</v>
       </c>
       <c r="PK3" t="n">
-        <v>1004.669713452797</v>
+        <v>1004.669713451904</v>
       </c>
       <c r="PL3" t="n">
-        <v>313.4521947799407</v>
+        <v>313.4521947622202</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.9992959090477337</v>
+        <v>0.9992959090477117</v>
       </c>
       <c r="PN3" t="n">
-        <v>1.573740359743538e-05</v>
+        <v>1.573740359598474e-05</v>
       </c>
       <c r="PO3" t="n">
-        <v>0.02210374184772934</v>
+        <v>0.02210374184552879</v>
       </c>
       <c r="PP3" t="inlineStr">
         <is>
@@ -6072,97 +6072,97 @@
         <v>1</v>
       </c>
       <c r="PR3" t="n">
-        <v>268.6018581026084</v>
+        <v>268.6018580441706</v>
       </c>
       <c r="PS3" t="n">
-        <v>92809.84578983384</v>
+        <v>92809.84571287852</v>
       </c>
       <c r="PT3" t="n">
-        <v>1.204460601523681</v>
+        <v>1.204460600787312</v>
       </c>
       <c r="PU3" t="n">
-        <v>317682.3093236604</v>
+        <v>317682.309281905</v>
       </c>
       <c r="PV3" t="n">
-        <v>394737.420692539</v>
+        <v>394737.4206340007</v>
       </c>
       <c r="PW3" t="n">
-        <v>3800.777671013377</v>
+        <v>3800.777671033309</v>
       </c>
       <c r="PX3" t="n">
-        <v>-626158.5239765585</v>
+        <v>-626158.5238183413</v>
       </c>
       <c r="PY3" t="n">
-        <v>716.7873582299834</v>
+        <v>716.7873582281273</v>
       </c>
       <c r="PZ3" t="n">
-        <v>1005.447913944234</v>
+        <v>1005.447913941875</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.402714350915817</v>
+        <v>1.402714350916157</v>
       </c>
       <c r="QB3" t="n">
-        <v>0.9993927849314979</v>
+        <v>0.9993927849312574</v>
       </c>
       <c r="QC3" t="n">
-        <v>328.665473072972</v>
+        <v>328.6654730371794</v>
       </c>
       <c r="QD3" t="n">
-        <v>130107.0304351507</v>
+        <v>130107.0303272694</v>
       </c>
       <c r="QE3" t="n">
-        <v>7.685979740337169e-06</v>
+        <v>7.685979746710182e-06</v>
       </c>
       <c r="QF3" t="n">
-        <v>92753.76012956969</v>
+        <v>92753.76005263817</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.078123408261917e-05</v>
+        <v>1.078123409156131e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.003735680732336259</v>
+        <v>0.003735680733146655</v>
       </c>
       <c r="QI3" t="n">
-        <v>1.698850881385927e-05</v>
+        <v>1.698850881090012e-05</v>
       </c>
       <c r="QJ3" t="n">
-        <v>0.02400845946846286</v>
+        <v>0.02400845946393881</v>
       </c>
       <c r="QK3" t="n">
-        <v>92809.84578983384</v>
+        <v>92809.84571287852</v>
       </c>
       <c r="QL3" t="n">
-        <v>1.204460601523681</v>
+        <v>1.204460600787312</v>
       </c>
       <c r="QM3" t="n">
-        <v>1.204460601523681</v>
+        <v>1.204460600787312</v>
       </c>
       <c r="QN3" t="n">
-        <v>317682.3093236604</v>
+        <v>317682.309281905</v>
       </c>
       <c r="QO3" t="n">
-        <v>394737.420692539</v>
+        <v>394737.4206340007</v>
       </c>
       <c r="QP3" t="n">
-        <v>3800.777671013377</v>
+        <v>3800.777671033309</v>
       </c>
       <c r="QQ3" t="n">
-        <v>716.7873582299834</v>
+        <v>716.7873582281273</v>
       </c>
       <c r="QR3" t="n">
-        <v>1005.447913944234</v>
+        <v>1005.447913941875</v>
       </c>
       <c r="QS3" t="n">
-        <v>328.665473072972</v>
+        <v>328.6654730371794</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.9993927849314979</v>
+        <v>0.9993927849312574</v>
       </c>
       <c r="QU3" t="n">
-        <v>1.698850881385927e-05</v>
+        <v>1.698850881090012e-05</v>
       </c>
       <c r="QV3" t="n">
-        <v>0.02400845946846286</v>
+        <v>0.02400845946393881</v>
       </c>
       <c r="QW3" t="inlineStr">
         <is>
@@ -6173,46 +6173,46 @@
         <v>1</v>
       </c>
       <c r="QY3" t="n">
-        <v>0.4646729609300544</v>
+        <v>0.4646729601970268</v>
       </c>
       <c r="QZ3" t="n">
-        <v>0.8556622934023368</v>
+        <v>0.8556622926150426</v>
       </c>
       <c r="RA3" t="n">
-        <v>385350.6575081553</v>
+        <v>385350.6571327989</v>
       </c>
       <c r="RB3" t="n">
-        <v>2.742649143065224</v>
+        <v>2.742649139570286</v>
       </c>
       <c r="RC3" t="n">
-        <v>381074.8467273187</v>
+        <v>381074.8466687868</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.02459644718233777</v>
+        <v>0.0245964472205242</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.002168221029457124</v>
+        <v>0.002168221110603813</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.01188668129739154</v>
+        <v>0.01188668129219711</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.03204646814304614</v>
+        <v>0.03204646819156531</v>
       </c>
       <c r="RH3" t="n">
-        <v>0.04267186618208298</v>
+        <v>0.04267186627366214</v>
       </c>
       <c r="RI3" t="n">
-        <v>0.1133696838343156</v>
+        <v>0.1133696840885526</v>
       </c>
       <c r="RJ3" t="n">
-        <v>1.201437838105335e-10</v>
+        <v>3.493901001849764e-11</v>
       </c>
       <c r="RK3" t="n">
         <v>0</v>
       </c>
       <c r="RL3" t="n">
-        <v>357445.7163344315</v>
+        <v>357445.7163366277</v>
       </c>
     </row>
   </sheetData>
@@ -8686,34 +8686,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01593440616305371</v>
+        <v>0.01593440619298704</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.788006355202653e-07</v>
+        <v>-1.788006381059331e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01379068410815233</v>
+        <v>0.01379068410913827</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02519148973576893</v>
+        <v>0.02519148972219196</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05491640120633945</v>
+        <v>0.05491640122367916</v>
       </c>
       <c r="H2" t="n">
-        <v>-4.539424391936109e-13</v>
+        <v>2.217808575677438e-11</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.75758172319379</v>
+        <v>81.75758172148861</v>
       </c>
       <c r="K2" t="n">
-        <v>81.75758172319379</v>
+        <v>81.75758172148861</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8722,10 +8722,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>81.75758172319379</v>
+        <v>81.75758172148861</v>
       </c>
       <c r="O2" t="n">
-        <v>81.75758172319379</v>
+        <v>81.75758172148861</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8734,97 +8734,97 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>292.2676180727504</v>
+        <v>292.2676180726892</v>
       </c>
       <c r="S2" t="n">
-        <v>132637.8394379037</v>
+        <v>132637.8394378069</v>
       </c>
       <c r="T2" t="n">
-        <v>1.581790096103924</v>
+        <v>1.581790096103101</v>
       </c>
       <c r="U2" t="n">
-        <v>334589.2834752708</v>
+        <v>334589.283475227</v>
       </c>
       <c r="V2" t="n">
-        <v>418442.280004078</v>
+        <v>418442.2800040164</v>
       </c>
       <c r="W2" t="n">
-        <v>3782.917347723465</v>
+        <v>3782.917347723464</v>
       </c>
       <c r="X2" t="n">
-        <v>-687181.9625811458</v>
+        <v>-687181.9625809753</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.7090713704131</v>
+        <v>717.7090713704102</v>
       </c>
       <c r="Z2" t="n">
-        <v>1006.643209103406</v>
+        <v>1006.643209103403</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402578355574208</v>
+        <v>1.40257835557421</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9994973723756411</v>
+        <v>0.9994973723756406</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.8584121223378</v>
+        <v>342.8584121223018</v>
       </c>
       <c r="AD2" t="n">
-        <v>185942.4165872841</v>
+        <v>185942.4165871484</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.378009054381549e-06</v>
+        <v>5.378009054385476e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>132571.8565727903</v>
+        <v>132571.8565726935</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.543079095757679e-06</v>
+        <v>7.543079095763189e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003434455038597021</v>
+        <v>0.003434455038597738</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.816725856047911e-05</v>
+        <v>1.816725856047612e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02581791190129264</v>
+        <v>0.02581791190128803</v>
       </c>
       <c r="AK2" t="n">
-        <v>132637.8394379037</v>
+        <v>132637.8394378069</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.581790096103924</v>
+        <v>1.581790096103101</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.581790096103924</v>
+        <v>1.581790096103101</v>
       </c>
       <c r="AN2" t="n">
-        <v>334589.2834752708</v>
+        <v>334589.283475227</v>
       </c>
       <c r="AO2" t="n">
-        <v>418442.280004078</v>
+        <v>418442.2800040164</v>
       </c>
       <c r="AP2" t="n">
-        <v>3782.917347723465</v>
+        <v>3782.917347723464</v>
       </c>
       <c r="AQ2" t="n">
-        <v>717.7090713704131</v>
+        <v>717.7090713704102</v>
       </c>
       <c r="AR2" t="n">
-        <v>1006.643209103406</v>
+        <v>1006.643209103403</v>
       </c>
       <c r="AS2" t="n">
-        <v>342.8584121223378</v>
+        <v>342.8584121223018</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9994973723756411</v>
+        <v>0.9994973723756406</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.816725856047911e-05</v>
+        <v>1.816725856047612e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02581791190129264</v>
+        <v>0.02581791190128803</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
@@ -9037,16 +9037,16 @@
         <v>1</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.2384587305794943</v>
+        <v>0.2384587305745459</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.2384587305794943</v>
+        <v>0.2384587305745459</v>
       </c>
       <c r="DO2" t="n">
-        <v>186219.5323172082</v>
+        <v>186219.5323132581</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.776369934678785</v>
+        <v>2.776369934619435</v>
       </c>
       <c r="DQ2" t="n">
         <v>421784.4310885898</v>
@@ -9055,121 +9055,121 @@
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>309.3780758497458</v>
+        <v>309.3780761084673</v>
       </c>
       <c r="DT2" t="n">
-        <v>126.4136409212894</v>
+        <v>126.4136410270045</v>
       </c>
       <c r="DU2" t="n">
-        <v>282.3727770262466</v>
+        <v>282.3727772623845</v>
       </c>
       <c r="DV2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW2" t="n">
-        <v>309.3780758497458</v>
+        <v>309.3780761084673</v>
       </c>
       <c r="DX2" t="n">
-        <v>126.4136409212894</v>
+        <v>126.4136410270045</v>
       </c>
       <c r="DY2" t="n">
-        <v>282.3727770262466</v>
+        <v>282.3727772623845</v>
       </c>
       <c r="DZ2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA2" t="n">
-        <v>247.8365052415794</v>
+        <v>247.8365051618464</v>
       </c>
       <c r="EB2" t="n">
-        <v>72726.23817663982</v>
+        <v>72726.2380932224</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.02301467393159</v>
+        <v>1.023014673087578</v>
       </c>
       <c r="ED2" t="n">
-        <v>302836.9119856695</v>
+        <v>302836.9119287165</v>
       </c>
       <c r="EE2" t="n">
-        <v>373927.0341802442</v>
+        <v>373927.0341004016</v>
       </c>
       <c r="EF2" t="n">
-        <v>3790.093061299708</v>
+        <v>3790.093061306558</v>
       </c>
       <c r="EG2" t="n">
-        <v>-565396.3846726347</v>
+        <v>-565396.3844519798</v>
       </c>
       <c r="EH2" t="n">
-        <v>716.2529430624543</v>
+        <v>716.252943060736</v>
       </c>
       <c r="EI2" t="n">
-        <v>1004.83158121192</v>
+        <v>1004.831581209623</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.402900457086573</v>
+        <v>1.402900457086731</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.9992812859014286</v>
+        <v>0.9992812859011639</v>
       </c>
       <c r="EL2" t="n">
-        <v>315.6911157427991</v>
+        <v>315.6911156919512</v>
       </c>
       <c r="EM2" t="n">
-        <v>101954.5432287324</v>
+        <v>101954.5431117741</v>
       </c>
       <c r="EN2" t="n">
-        <v>9.808292679577068e-06</v>
+        <v>9.808292690828768e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>72674.11077794014</v>
+        <v>72674.11069456296</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.376005828341755e-05</v>
+        <v>1.376005829920412e-05</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.004048559440144016</v>
+        <v>0.004048559441443521</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.59211311827761e-05</v>
+        <v>1.592113117860971e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.02238288375938274</v>
+        <v>0.0223828837530573</v>
       </c>
       <c r="ET2" t="n">
-        <v>72726.23817663982</v>
+        <v>72726.2380932224</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.02301467393159</v>
+        <v>1.023014673087578</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.02301467393159</v>
+        <v>1.023014673087578</v>
       </c>
       <c r="EW2" t="n">
-        <v>302836.9119856695</v>
+        <v>302836.9119287165</v>
       </c>
       <c r="EX2" t="n">
-        <v>373927.0341802442</v>
+        <v>373927.0341004016</v>
       </c>
       <c r="EY2" t="n">
-        <v>3790.093061299708</v>
+        <v>3790.093061306558</v>
       </c>
       <c r="EZ2" t="n">
-        <v>716.2529430624543</v>
+        <v>716.252943060736</v>
       </c>
       <c r="FA2" t="n">
-        <v>1004.83158121192</v>
+        <v>1004.831581209623</v>
       </c>
       <c r="FB2" t="n">
-        <v>315.6911157427991</v>
+        <v>315.6911156919512</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.9992812859014286</v>
+        <v>0.9992812859011639</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.59211311827761e-05</v>
+        <v>1.592113117860971e-05</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.02238288375938274</v>
+        <v>0.0223828837530573</v>
       </c>
       <c r="FF2" t="inlineStr">
         <is>
@@ -9180,97 +9180,97 @@
         <v>1</v>
       </c>
       <c r="FH2" t="n">
-        <v>295.5920968650684</v>
+        <v>295.592096865061</v>
       </c>
       <c r="FI2" t="n">
-        <v>134591.416568724</v>
+        <v>134591.4165655102</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.586979527376167</v>
+        <v>1.586979527338295</v>
       </c>
       <c r="FK2" t="n">
-        <v>336974.6309325083</v>
+        <v>336974.6309325098</v>
       </c>
       <c r="FL2" t="n">
-        <v>421784.4310886897</v>
+        <v>421784.43108869</v>
       </c>
       <c r="FM2" t="n">
-        <v>3790.093061309355</v>
+        <v>3790.093061316207</v>
       </c>
       <c r="FN2" t="n">
-        <v>-698537.1242174888</v>
+        <v>-698537.124219486</v>
       </c>
       <c r="FO2" t="n">
-        <v>717.8543580608509</v>
+        <v>717.8543580608426</v>
       </c>
       <c r="FP2" t="n">
-        <v>1006.765618720897</v>
+        <v>1006.765618720844</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.402465008975478</v>
+        <v>1.40246500897542</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.9995326648233712</v>
+        <v>0.9995326648233821</v>
       </c>
       <c r="FS2" t="n">
-        <v>344.8011163636411</v>
+        <v>344.8011163636334</v>
       </c>
       <c r="FT2" t="n">
-        <v>188672.5202795788</v>
+        <v>188672.5202750679</v>
       </c>
       <c r="FU2" t="n">
-        <v>5.300188912079934e-06</v>
+        <v>5.300188912206655e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>134529.2175363484</v>
+        <v>134529.2175331374</v>
       </c>
       <c r="FW2" t="n">
-        <v>7.433329490151912e-06</v>
+        <v>7.433329490329329e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.003395573843600395</v>
+        <v>0.003395573843600182</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.832907665247854e-05</v>
+        <v>1.832907665247772e-05</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.02606695184420412</v>
+        <v>0.02606695184420253</v>
       </c>
       <c r="GA2" t="n">
-        <v>134591.416568724</v>
+        <v>134591.4165655102</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.586979527376167</v>
+        <v>1.586979527338295</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.586979527376167</v>
+        <v>1.586979527338295</v>
       </c>
       <c r="GD2" t="n">
-        <v>336974.6309325083</v>
+        <v>336974.6309325098</v>
       </c>
       <c r="GE2" t="n">
-        <v>421784.4310886897</v>
+        <v>421784.43108869</v>
       </c>
       <c r="GF2" t="n">
-        <v>3790.093061309355</v>
+        <v>3790.093061316207</v>
       </c>
       <c r="GG2" t="n">
-        <v>717.8543580608509</v>
+        <v>717.8543580608426</v>
       </c>
       <c r="GH2" t="n">
-        <v>1006.765618720897</v>
+        <v>1006.765618720844</v>
       </c>
       <c r="GI2" t="n">
-        <v>344.8011163636411</v>
+        <v>344.8011163636334</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.9995326648233712</v>
+        <v>0.9995326648233821</v>
       </c>
       <c r="GK2" t="n">
-        <v>1.832907665247854e-05</v>
+        <v>1.832907665247772e-05</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.02606695184420412</v>
+        <v>0.02606695184420253</v>
       </c>
       <c r="GM2" t="inlineStr">
         <is>
@@ -9281,97 +9281,97 @@
         <v>1</v>
       </c>
       <c r="GO2" t="n">
-        <v>295.5920968650684</v>
+        <v>295.592096865061</v>
       </c>
       <c r="GP2" t="n">
-        <v>134591.416568724</v>
+        <v>134591.4165655102</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.586979527376167</v>
+        <v>1.586979527338295</v>
       </c>
       <c r="GR2" t="n">
-        <v>336974.6309325083</v>
+        <v>336974.6309325098</v>
       </c>
       <c r="GS2" t="n">
-        <v>421784.4310886897</v>
+        <v>421784.43108869</v>
       </c>
       <c r="GT2" t="n">
-        <v>3790.093061309355</v>
+        <v>3790.093061316207</v>
       </c>
       <c r="GU2" t="n">
-        <v>-698537.1242174888</v>
+        <v>-698537.124219486</v>
       </c>
       <c r="GV2" t="n">
-        <v>717.8543580608509</v>
+        <v>717.8543580608426</v>
       </c>
       <c r="GW2" t="n">
-        <v>1006.765618720897</v>
+        <v>1006.765618720844</v>
       </c>
       <c r="GX2" t="n">
-        <v>1.402465008975478</v>
+        <v>1.40246500897542</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.9995326648233712</v>
+        <v>0.9995326648233821</v>
       </c>
       <c r="GZ2" t="n">
-        <v>344.8011163636411</v>
+        <v>344.8011163636334</v>
       </c>
       <c r="HA2" t="n">
-        <v>188672.5202795788</v>
+        <v>188672.5202750679</v>
       </c>
       <c r="HB2" t="n">
-        <v>5.300188912079934e-06</v>
+        <v>5.300188912206655e-06</v>
       </c>
       <c r="HC2" t="n">
-        <v>134529.2175363484</v>
+        <v>134529.2175331374</v>
       </c>
       <c r="HD2" t="n">
-        <v>7.433329490151912e-06</v>
+        <v>7.433329490329329e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.003395573843600395</v>
+        <v>0.003395573843600182</v>
       </c>
       <c r="HF2" t="n">
-        <v>1.832907665247854e-05</v>
+        <v>1.832907665247772e-05</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.02606695184420412</v>
+        <v>0.02606695184420253</v>
       </c>
       <c r="HH2" t="n">
-        <v>134591.416568724</v>
+        <v>134591.4165655102</v>
       </c>
       <c r="HI2" t="n">
-        <v>1.586979527376167</v>
+        <v>1.586979527338295</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.586979527376167</v>
+        <v>1.586979527338295</v>
       </c>
       <c r="HK2" t="n">
-        <v>336974.6309325083</v>
+        <v>336974.6309325098</v>
       </c>
       <c r="HL2" t="n">
-        <v>421784.4310886897</v>
+        <v>421784.43108869</v>
       </c>
       <c r="HM2" t="n">
-        <v>3790.093061309355</v>
+        <v>3790.093061316207</v>
       </c>
       <c r="HN2" t="n">
-        <v>717.8543580608509</v>
+        <v>717.8543580608426</v>
       </c>
       <c r="HO2" t="n">
-        <v>1006.765618720897</v>
+        <v>1006.765618720844</v>
       </c>
       <c r="HP2" t="n">
-        <v>344.8011163636411</v>
+        <v>344.8011163636334</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.9995326648233712</v>
+        <v>0.9995326648233821</v>
       </c>
       <c r="HR2" t="n">
-        <v>1.832907665247854e-05</v>
+        <v>1.832907665247772e-05</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.02606695184420412</v>
+        <v>0.02606695184420253</v>
       </c>
       <c r="HT2" t="inlineStr">
         <is>
@@ -9382,37 +9382,37 @@
         <v>1</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.01619337326202125</v>
+        <v>0.01619337326279765</v>
       </c>
       <c r="HW2" t="n">
-        <v>-1.97200576736719e-07</v>
+        <v>-1.972005764758676e-07</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.01379727827867989</v>
+        <v>0.01379727827867947</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.02510093007319242</v>
+        <v>0.02510093007320248</v>
       </c>
       <c r="HZ2" t="n">
         <v>0</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.05509138441331683</v>
+        <v>0.05509138441410313</v>
       </c>
       <c r="IB2" t="n">
-        <v>5.578251407067913e-06</v>
+        <v>5.578228507399641e-06</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.9800024784409939</v>
+        <v>0.9800024794183814</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.9800024784409939</v>
+        <v>0.9800024794183814</v>
       </c>
       <c r="IE2" t="n">
-        <v>520038.1637983914</v>
+        <v>520038.1639403243</v>
       </c>
       <c r="IF2" t="n">
-        <v>2.776362991709629</v>
+        <v>2.776362991740831</v>
       </c>
       <c r="IG2" t="n">
         <v>421784.4310885898</v>
@@ -9421,154 +9421,154 @@
         <v>0</v>
       </c>
       <c r="II2" t="n">
-        <v>372154.9653022427</v>
+        <v>372154.9652212838</v>
       </c>
       <c r="IJ2" t="n">
-        <v>1473.439596402925</v>
+        <v>1473.439619200537</v>
       </c>
       <c r="IK2" t="n">
         <v>0</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.02447288182510375</v>
+        <v>0.02447288244214305</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.001918869700581695</v>
+        <v>0.001918870061643048</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.01189012430636568</v>
+        <v>0.01189012425402965</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.03198084303909954</v>
+        <v>0.03198084342480764</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.0423764646599041</v>
+        <v>0.04237646494410986</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.1126391835310548</v>
+        <v>0.1126391851267333</v>
       </c>
       <c r="IR2" t="n">
-        <v>2.493089068522636e-12</v>
+        <v>1.156520712530806e-11</v>
       </c>
       <c r="IS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IT2" t="n">
-        <v>272.0237982594463</v>
+        <v>272.0237987015141</v>
       </c>
       <c r="IU2" t="n">
-        <v>111.9807685703978</v>
+        <v>111.9807686266521</v>
       </c>
       <c r="IV2" t="n">
-        <v>247.9057367022372</v>
+        <v>247.9057371619021</v>
       </c>
       <c r="IW2" t="n">
-        <v>65.69097056191143</v>
+        <v>65.69097059096921</v>
       </c>
       <c r="IX2" t="n">
-        <v>139.1505357490996</v>
+        <v>139.1505360672362</v>
       </c>
       <c r="IY2" t="n">
-        <v>111.9807685703978</v>
+        <v>111.9807686266521</v>
       </c>
       <c r="IZ2" t="n">
-        <v>82.60253670223722</v>
+        <v>82.60253716190206</v>
       </c>
       <c r="JA2" t="n">
-        <v>36.41431521480859</v>
+        <v>36.41431535337183</v>
       </c>
       <c r="JB2" t="n">
-        <v>258.6798006482964</v>
+        <v>258.6798005280502</v>
       </c>
       <c r="JC2" t="n">
-        <v>84891.32858970347</v>
+        <v>84891.32842067316</v>
       </c>
       <c r="JD2" t="n">
-        <v>1.144036532937564</v>
+        <v>1.14403653119174</v>
       </c>
       <c r="JE2" t="n">
-        <v>310582.620507771</v>
+        <v>310582.6204219308</v>
       </c>
       <c r="JF2" t="n">
-        <v>384785.957678942</v>
+        <v>384785.9575585886</v>
       </c>
       <c r="JG2" t="n">
-        <v>3788.609748070154</v>
+        <v>3788.609748176059</v>
       </c>
       <c r="JH2" t="n">
-        <v>-595250.8566860377</v>
+        <v>-595250.8563782211</v>
       </c>
       <c r="JI2" t="n">
-        <v>716.5135610105488</v>
+        <v>716.5135610072604</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1005.174772340696</v>
+        <v>1005.174772335981</v>
       </c>
       <c r="JK2" t="n">
-        <v>1.402869152850406</v>
+        <v>1.402869152850263</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.9993202541136248</v>
+        <v>0.9993202541133543</v>
       </c>
       <c r="JM2" t="n">
-        <v>322.5322907995925</v>
+        <v>322.5322907245236</v>
       </c>
       <c r="JN2" t="n">
-        <v>119010.778342815</v>
+        <v>119010.7781058029</v>
       </c>
       <c r="JO2" t="n">
-        <v>8.402600284820107e-06</v>
+        <v>8.402600301554039e-06</v>
       </c>
       <c r="JP2" t="n">
-        <v>84833.84077624358</v>
+        <v>84833.84060730404</v>
       </c>
       <c r="JQ2" t="n">
-        <v>1.178774874330616e-05</v>
+        <v>1.178774876678048e-05</v>
       </c>
       <c r="JR2" t="n">
-        <v>0.003879255082395213</v>
+        <v>0.003879255084189948</v>
       </c>
       <c r="JS2" t="n">
-        <v>1.648304723110324e-05</v>
+        <v>1.648304722491933e-05</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.02323755460432473</v>
+        <v>0.0232375545948985</v>
       </c>
       <c r="JU2" t="n">
-        <v>84891.32858970347</v>
+        <v>84891.32842067316</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.144036532937564</v>
+        <v>1.14403653119174</v>
       </c>
       <c r="JW2" t="n">
-        <v>1.144036532937564</v>
+        <v>1.14403653119174</v>
       </c>
       <c r="JX2" t="n">
-        <v>310582.620507771</v>
+        <v>310582.6204219308</v>
       </c>
       <c r="JY2" t="n">
-        <v>384785.957678942</v>
+        <v>384785.9575585886</v>
       </c>
       <c r="JZ2" t="n">
-        <v>3788.609748070154</v>
+        <v>3788.609748176059</v>
       </c>
       <c r="KA2" t="n">
-        <v>716.5135610105488</v>
+        <v>716.5135610072604</v>
       </c>
       <c r="KB2" t="n">
-        <v>1005.174772340696</v>
+        <v>1005.174772335981</v>
       </c>
       <c r="KC2" t="n">
-        <v>322.5322907995925</v>
+        <v>322.5322907245236</v>
       </c>
       <c r="KD2" t="n">
-        <v>0.9993202541136248</v>
+        <v>0.9993202541133543</v>
       </c>
       <c r="KE2" t="n">
-        <v>1.648304723110324e-05</v>
+        <v>1.648304722491933e-05</v>
       </c>
       <c r="KF2" t="n">
-        <v>0.02323755460432473</v>
+        <v>0.0232375545948985</v>
       </c>
       <c r="KG2" t="inlineStr">
         <is>
@@ -9579,97 +9579,97 @@
         <v>1</v>
       </c>
       <c r="KI2" t="n">
-        <v>295.593714486439</v>
+        <v>295.5937144863229</v>
       </c>
       <c r="KJ2" t="n">
-        <v>135289.0393230057</v>
+        <v>135289.0392730677</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.595200320593994</v>
+        <v>1.595200320005528</v>
       </c>
       <c r="KL2" t="n">
-        <v>336974.3683168942</v>
+        <v>336974.3683169128</v>
       </c>
       <c r="KM2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="KN2" t="n">
-        <v>3788.609748075354</v>
+        <v>3788.609748181259</v>
       </c>
       <c r="KO2" t="n">
-        <v>-698104.7970845358</v>
+        <v>-698104.7971154009</v>
       </c>
       <c r="KP2" t="n">
-        <v>717.8561751867702</v>
+        <v>717.85617518664</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1006.777073038537</v>
+        <v>1006.777073037717</v>
       </c>
       <c r="KR2" t="n">
-        <v>1.40247741516829</v>
+        <v>1.402477415167402</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.9995302899915224</v>
+        <v>0.9995302899916924</v>
       </c>
       <c r="KT2" t="n">
-        <v>344.8027749234516</v>
+        <v>344.8027749233327</v>
       </c>
       <c r="KU2" t="n">
-        <v>189651.6968896889</v>
+        <v>189651.6968195959</v>
       </c>
       <c r="KV2" t="n">
-        <v>5.272823899812777e-06</v>
+        <v>5.272823901761549e-06</v>
       </c>
       <c r="KW2" t="n">
-        <v>135226.2038864502</v>
+        <v>135226.2038365578</v>
       </c>
       <c r="KX2" t="n">
-        <v>7.39501643364701e-06</v>
+        <v>7.395016436375435e-06</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.003395619870060851</v>
+        <v>0.00339561987005756</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1.832925574427493e-05</v>
+        <v>1.832925574426211e-05</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.02606729613577387</v>
+        <v>0.02606729613574921</v>
       </c>
       <c r="LB2" t="n">
-        <v>135289.0393230057</v>
+        <v>135289.0392730677</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.595200320593994</v>
+        <v>1.595200320005528</v>
       </c>
       <c r="LD2" t="n">
-        <v>1.595200320593994</v>
+        <v>1.595200320005528</v>
       </c>
       <c r="LE2" t="n">
-        <v>336974.3683168942</v>
+        <v>336974.3683169128</v>
       </c>
       <c r="LF2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="LG2" t="n">
-        <v>3788.609748075354</v>
+        <v>3788.609748181259</v>
       </c>
       <c r="LH2" t="n">
-        <v>717.8561751867702</v>
+        <v>717.85617518664</v>
       </c>
       <c r="LI2" t="n">
-        <v>1006.777073038537</v>
+        <v>1006.777073037717</v>
       </c>
       <c r="LJ2" t="n">
-        <v>344.8027749234516</v>
+        <v>344.8027749233327</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.9995302899915224</v>
+        <v>0.9995302899916924</v>
       </c>
       <c r="LL2" t="n">
-        <v>1.832925574427493e-05</v>
+        <v>1.832925574426211e-05</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.02606729613577387</v>
+        <v>0.02606729613574921</v>
       </c>
       <c r="LN2" t="inlineStr">
         <is>
@@ -9680,97 +9680,97 @@
         <v>1</v>
       </c>
       <c r="LP2" t="n">
-        <v>268.3436841390998</v>
+        <v>268.3436840631634</v>
       </c>
       <c r="LQ2" t="n">
-        <v>96492.24854184708</v>
+        <v>96492.24841097881</v>
       </c>
       <c r="LR2" t="n">
-        <v>1.253488949255919</v>
+        <v>1.253488947910768</v>
       </c>
       <c r="LS2" t="n">
-        <v>317488.4551327251</v>
+        <v>317488.4550785358</v>
       </c>
       <c r="LT2" t="n">
-        <v>394467.3934784725</v>
+        <v>394467.3934024881</v>
       </c>
       <c r="LU2" t="n">
-        <v>3788.609748076799</v>
+        <v>3788.609748182704</v>
       </c>
       <c r="LV2" t="n">
-        <v>-622182.1040857625</v>
+        <v>-622182.1039024724</v>
       </c>
       <c r="LW2" t="n">
-        <v>716.7921572768125</v>
+        <v>716.7921572743204</v>
       </c>
       <c r="LX2" t="n">
-        <v>1005.520591117814</v>
+        <v>1005.520591114173</v>
       </c>
       <c r="LY2" t="n">
-        <v>1.402806351757418</v>
+        <v>1.402806351757215</v>
       </c>
       <c r="LZ2" t="n">
-        <v>0.9993653998619708</v>
+        <v>0.9993653998618215</v>
       </c>
       <c r="MA2" t="n">
-        <v>328.509292388901</v>
+        <v>328.5092923423459</v>
       </c>
       <c r="MB2" t="n">
-        <v>135274.4656473463</v>
+        <v>135274.4654638387</v>
       </c>
       <c r="MC2" t="n">
-        <v>7.392378119658958e-06</v>
+        <v>7.392378129687146e-06</v>
       </c>
       <c r="MD2" t="n">
-        <v>96431.31817722114</v>
+        <v>96431.31804642041</v>
       </c>
       <c r="ME2" t="n">
-        <v>1.037007498085014e-05</v>
+        <v>1.037007499491625e-05</v>
       </c>
       <c r="MF2" t="n">
-        <v>0.003739816484938719</v>
+        <v>0.003739816485990149</v>
       </c>
       <c r="MG2" t="n">
-        <v>1.697604497490811e-05</v>
+        <v>1.697604497105678e-05</v>
       </c>
       <c r="MH2" t="n">
-        <v>0.02398989779971636</v>
+        <v>0.02398989779382528</v>
       </c>
       <c r="MI2" t="n">
-        <v>96492.24854184708</v>
+        <v>96492.24841097881</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.253488949255919</v>
+        <v>1.253488947910768</v>
       </c>
       <c r="MK2" t="n">
-        <v>1.253488949255919</v>
+        <v>1.253488947910768</v>
       </c>
       <c r="ML2" t="n">
-        <v>317488.4551327251</v>
+        <v>317488.4550785358</v>
       </c>
       <c r="MM2" t="n">
-        <v>394467.3934784725</v>
+        <v>394467.3934024881</v>
       </c>
       <c r="MN2" t="n">
-        <v>3788.609748076799</v>
+        <v>3788.609748182704</v>
       </c>
       <c r="MO2" t="n">
-        <v>716.7921572768125</v>
+        <v>716.7921572743204</v>
       </c>
       <c r="MP2" t="n">
-        <v>1005.520591117814</v>
+        <v>1005.520591114173</v>
       </c>
       <c r="MQ2" t="n">
-        <v>328.509292388901</v>
+        <v>328.5092923423459</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.9993653998619708</v>
+        <v>0.9993653998618215</v>
       </c>
       <c r="MS2" t="n">
-        <v>1.697604497490811e-05</v>
+        <v>1.697604497105678e-05</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.02398989779971636</v>
+        <v>0.02398989779382528</v>
       </c>
       <c r="MU2" t="inlineStr">
         <is>
@@ -9781,139 +9781,139 @@
         <v>1</v>
       </c>
       <c r="MW2" t="n">
-        <v>0.8434001990469537</v>
+        <v>0.8434002006138694</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.4314313317408632</v>
+        <v>0.4314313328276497</v>
       </c>
       <c r="MY2" t="n">
-        <v>251687.5216073582</v>
+        <v>251687.5218931301</v>
       </c>
       <c r="MZ2" t="n">
-        <v>2.750323506629195</v>
+        <v>2.750323503813787</v>
       </c>
       <c r="NA2" t="n">
-        <v>380804.8195133525</v>
+        <v>380804.8194372678</v>
       </c>
       <c r="NB2" t="n">
         <v>165.3032</v>
       </c>
       <c r="NC2" t="n">
-        <v>165.5472131213126</v>
+        <v>165.5472302648388</v>
       </c>
       <c r="ND2" t="n">
-        <v>139.8410619576221</v>
+        <v>139.8410713953816</v>
       </c>
       <c r="NE2" t="n">
-        <v>-88.6022412966951</v>
+        <v>-88.60225843256677</v>
       </c>
       <c r="NF2" t="n">
-        <v>-32.35803841292399</v>
+        <v>-32.35804167451129</v>
       </c>
       <c r="NG2" t="n">
-        <v>289.8680660740417</v>
+        <v>289.8680856370016</v>
       </c>
       <c r="NH2" t="n">
-        <v>139.8410619576221</v>
+        <v>139.8410713953816</v>
       </c>
       <c r="NI2" t="n">
-        <v>-253.9054412966951</v>
+        <v>-253.9054584325668</v>
       </c>
       <c r="NJ2" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="NK2" t="n">
-        <v>226.383295718476</v>
+        <v>226.3832899772287</v>
       </c>
       <c r="NL2" t="n">
-        <v>50711.02408248658</v>
+        <v>50711.01930821634</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.7809540092488947</v>
+        <v>0.7809539555360018</v>
       </c>
       <c r="NN2" t="n">
-        <v>287520.9330930926</v>
+        <v>287520.9289933963</v>
       </c>
       <c r="NO2" t="n">
-        <v>352455.6456138201</v>
+        <v>352455.6398668577</v>
       </c>
       <c r="NP2" t="n">
-        <v>3802.89879852149</v>
+        <v>3802.898800140071</v>
       </c>
       <c r="NQ2" t="n">
-        <v>-508457.1176793072</v>
+        <v>-508457.1019593071</v>
       </c>
       <c r="NR2" t="n">
-        <v>715.8712583295892</v>
+        <v>715.8712582514848</v>
       </c>
       <c r="NS2" t="n">
-        <v>1004.24534470382</v>
+        <v>1004.245344581898</v>
       </c>
       <c r="NT2" t="n">
-        <v>1.402829535365229</v>
+        <v>1.402829535347971</v>
       </c>
       <c r="NU2" t="n">
-        <v>0.9992549629954515</v>
+        <v>0.9992549629881584</v>
       </c>
       <c r="NV2" t="n">
-        <v>301.7027562697257</v>
+        <v>301.702752439936</v>
       </c>
       <c r="NW2" t="n">
-        <v>71085.98971535738</v>
+        <v>71085.9830214462</v>
       </c>
       <c r="NX2" t="n">
-        <v>1.406746960975294e-05</v>
+        <v>1.406747093443592e-05</v>
       </c>
       <c r="NY2" t="n">
-        <v>50673.29131821422</v>
+        <v>50673.28654711662</v>
       </c>
       <c r="NZ2" t="n">
-        <v>1.97342618564142e-05</v>
+        <v>1.973426371447584e-05</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.004430768907643873</v>
+        <v>0.004430769019707594</v>
       </c>
       <c r="OB2" t="n">
-        <v>1.478048808722617e-05</v>
+        <v>1.4780487776733e-05</v>
       </c>
       <c r="OC2" t="n">
-        <v>0.02065714950923043</v>
+        <v>0.02065714904126748</v>
       </c>
       <c r="OD2" t="n">
-        <v>50711.02408248658</v>
+        <v>50711.01930821634</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.7809540092488947</v>
+        <v>0.7809539555360018</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.7809540092488947</v>
+        <v>0.7809539555360018</v>
       </c>
       <c r="OG2" t="n">
-        <v>287520.9330930926</v>
+        <v>287520.9289933963</v>
       </c>
       <c r="OH2" t="n">
-        <v>352455.6456138201</v>
+        <v>352455.6398668577</v>
       </c>
       <c r="OI2" t="n">
-        <v>3802.89879852149</v>
+        <v>3802.898800140071</v>
       </c>
       <c r="OJ2" t="n">
-        <v>715.8712583295892</v>
+        <v>715.8712582514848</v>
       </c>
       <c r="OK2" t="n">
-        <v>1004.24534470382</v>
+        <v>1004.245344581898</v>
       </c>
       <c r="OL2" t="n">
-        <v>301.7027562697257</v>
+        <v>301.702752439936</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.9992549629954515</v>
+        <v>0.9992549629881584</v>
       </c>
       <c r="ON2" t="n">
-        <v>1.478048808722617e-05</v>
+        <v>1.4780487776733e-05</v>
       </c>
       <c r="OO2" t="n">
-        <v>0.02065714950923043</v>
+        <v>0.02065714904126748</v>
       </c>
       <c r="OP2" t="inlineStr">
         <is>
@@ -9924,97 +9924,97 @@
         <v>1</v>
       </c>
       <c r="OR2" t="n">
-        <v>240.0687890055307</v>
+        <v>240.068786099393</v>
       </c>
       <c r="OS2" t="n">
-        <v>62242.23397808123</v>
+        <v>62242.23099762069</v>
       </c>
       <c r="OT2" t="n">
-        <v>0.9038627075877698</v>
+        <v>0.9038626752520117</v>
       </c>
       <c r="OU2" t="n">
-        <v>297296.098470028</v>
+        <v>297296.0963950381</v>
       </c>
       <c r="OV2" t="n">
-        <v>366158.5854999371</v>
+        <v>366158.5825910375</v>
       </c>
       <c r="OW2" t="n">
-        <v>3802.898798516667</v>
+        <v>3802.898800135249</v>
       </c>
       <c r="OX2" t="n">
-        <v>-546798.723770547</v>
+        <v>-546798.7160162698</v>
       </c>
       <c r="OY2" t="n">
-        <v>716.0862823559366</v>
+        <v>716.0862823013807</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1004.547870029355</v>
+        <v>1004.547869948086</v>
       </c>
       <c r="PA2" t="n">
-        <v>1.402830768834692</v>
+        <v>1.402830768828077</v>
       </c>
       <c r="PB2" t="n">
-        <v>0.9992882291450369</v>
+        <v>0.9992882291406961</v>
       </c>
       <c r="PC2" t="n">
-        <v>310.6988856506854</v>
+        <v>310.6988837680096</v>
       </c>
       <c r="PD2" t="n">
-        <v>87253.29962237157</v>
+        <v>87253.2954434577</v>
       </c>
       <c r="PE2" t="n">
-        <v>1.146088462359539e-05</v>
+        <v>1.14608851725036e-05</v>
       </c>
       <c r="PF2" t="n">
-        <v>62198.02242778823</v>
+        <v>62198.01944916631</v>
       </c>
       <c r="PG2" t="n">
-        <v>1.607768158804402e-05</v>
+        <v>1.607768235799354e-05</v>
       </c>
       <c r="PH2" t="n">
-        <v>0.00417867976147768</v>
+        <v>0.00417867981188737</v>
       </c>
       <c r="PI2" t="n">
-        <v>1.551232162432057e-05</v>
+        <v>1.551232147056362e-05</v>
       </c>
       <c r="PJ2" t="n">
-        <v>0.02176262167501308</v>
+        <v>0.02176262144215285</v>
       </c>
       <c r="PK2" t="n">
-        <v>62242.23397808123</v>
+        <v>62242.23099762069</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.9038627075877698</v>
+        <v>0.9038626752520117</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.9038627075877698</v>
+        <v>0.9038626752520117</v>
       </c>
       <c r="PN2" t="n">
-        <v>297296.098470028</v>
+        <v>297296.0963950381</v>
       </c>
       <c r="PO2" t="n">
-        <v>366158.5854999371</v>
+        <v>366158.5825910375</v>
       </c>
       <c r="PP2" t="n">
-        <v>3802.898798516667</v>
+        <v>3802.898800135249</v>
       </c>
       <c r="PQ2" t="n">
-        <v>716.0862823559366</v>
+        <v>716.0862823013807</v>
       </c>
       <c r="PR2" t="n">
-        <v>1004.547870029355</v>
+        <v>1004.547869948086</v>
       </c>
       <c r="PS2" t="n">
-        <v>310.6988856506854</v>
+        <v>310.6988837680096</v>
       </c>
       <c r="PT2" t="n">
-        <v>0.9992882291450369</v>
+        <v>0.9992882291406961</v>
       </c>
       <c r="PU2" t="n">
-        <v>1.551232162432057e-05</v>
+        <v>1.551232147056362e-05</v>
       </c>
       <c r="PV2" t="n">
-        <v>0.02176262167501308</v>
+        <v>0.02176262144215285</v>
       </c>
       <c r="PW2" t="inlineStr">
         <is>
@@ -10025,97 +10025,97 @@
         <v>1</v>
       </c>
       <c r="PY2" t="n">
-        <v>268.3304541688551</v>
+        <v>268.3304540914632</v>
       </c>
       <c r="PZ2" t="n">
-        <v>91803.71128578388</v>
+        <v>91803.71067707942</v>
       </c>
       <c r="QA2" t="n">
-        <v>1.192604570587431</v>
+        <v>1.192604563020245</v>
       </c>
       <c r="QB2" t="n">
-        <v>317489.8993869611</v>
+        <v>317489.8993328467</v>
       </c>
       <c r="QC2" t="n">
-        <v>394467.3934783722</v>
+        <v>394467.3934022879</v>
       </c>
       <c r="QD2" t="n">
-        <v>3802.898798510843</v>
+        <v>3802.898800129424</v>
       </c>
       <c r="QE2" t="n">
-        <v>-625966.1682842355</v>
+        <v>-625966.1685003208</v>
       </c>
       <c r="QF2" t="n">
-        <v>716.7766612256413</v>
+        <v>716.7766612215556</v>
       </c>
       <c r="QG2" t="n">
-        <v>1005.423563380726</v>
+        <v>1005.423563367128</v>
       </c>
       <c r="QH2" t="n">
-        <v>1.402701312374649</v>
+        <v>1.402701312363673</v>
       </c>
       <c r="QI2" t="n">
-        <v>0.9993959226391729</v>
+        <v>0.9993959226421839</v>
       </c>
       <c r="QJ2" t="n">
-        <v>328.4988790353307</v>
+        <v>328.4988789876564</v>
       </c>
       <c r="QK2" t="n">
-        <v>128695.7642518668</v>
+        <v>128695.7633979256</v>
       </c>
       <c r="QL2" t="n">
-        <v>7.770263503334336e-06</v>
+        <v>7.770263554892739e-06</v>
       </c>
       <c r="QM2" t="n">
-        <v>91748.5163209809</v>
+        <v>91748.51571291544</v>
       </c>
       <c r="QN2" t="n">
-        <v>1.089935881362391e-05</v>
+        <v>1.089935888585966e-05</v>
       </c>
       <c r="QO2" t="n">
-        <v>0.00373935913251227</v>
+        <v>0.003739359133517964</v>
       </c>
       <c r="QP2" t="n">
-        <v>1.697466409793507e-05</v>
+        <v>1.697466409393744e-05</v>
       </c>
       <c r="QQ2" t="n">
-        <v>0.02398721461938854</v>
+        <v>0.02398721461321521</v>
       </c>
       <c r="QR2" t="n">
-        <v>91803.71128578388</v>
+        <v>91803.71067707942</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.192604570587431</v>
+        <v>1.192604563020245</v>
       </c>
       <c r="QT2" t="n">
-        <v>1.192604570587431</v>
+        <v>1.192604563020245</v>
       </c>
       <c r="QU2" t="n">
-        <v>317489.8993869611</v>
+        <v>317489.8993328467</v>
       </c>
       <c r="QV2" t="n">
-        <v>394467.3934783722</v>
+        <v>394467.3934022879</v>
       </c>
       <c r="QW2" t="n">
-        <v>3802.898798510843</v>
+        <v>3802.898800129424</v>
       </c>
       <c r="QX2" t="n">
-        <v>716.7766612256413</v>
+        <v>716.7766612215556</v>
       </c>
       <c r="QY2" t="n">
-        <v>1005.423563380726</v>
+        <v>1005.423563367128</v>
       </c>
       <c r="QZ2" t="n">
-        <v>328.4988790353307</v>
+        <v>328.4988789876564</v>
       </c>
       <c r="RA2" t="n">
-        <v>0.9993959226391729</v>
+        <v>0.9993959226421839</v>
       </c>
       <c r="RB2" t="n">
-        <v>1.697466409793507e-05</v>
+        <v>1.697466409393744e-05</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.02398721461938854</v>
+        <v>0.02398721461321521</v>
       </c>
       <c r="RD2" t="inlineStr">
         <is>
@@ -10126,52 +10126,52 @@
         <v>1</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.02454735591303702</v>
+        <v>0.02454735572130987</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.002565106121256436</v>
+        <v>0.002565106356321979</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.01188196847654914</v>
+        <v>0.01188196847014318</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.03211970595795261</v>
+        <v>0.0321197060145878</v>
       </c>
       <c r="RJ2" t="n">
-        <v>0.04296617889277026</v>
+        <v>0.0429661789849415</v>
       </c>
       <c r="RK2" t="n">
-        <v>0.1140803153615655</v>
+        <v>0.1140803155473043</v>
       </c>
       <c r="RL2" t="n">
-        <v>1.631776606407509e-05</v>
+        <v>1.631764259907298e-05</v>
       </c>
       <c r="RM2" t="n">
-        <v>0.5487096477610945</v>
+        <v>0.5487097115489408</v>
       </c>
       <c r="RN2" t="n">
-        <v>0.9607736755805318</v>
+        <v>0.9607737526183474</v>
       </c>
       <c r="RO2" t="n">
-        <v>399127.3305782788</v>
+        <v>399127.3384481057</v>
       </c>
       <c r="RP2" t="n">
-        <v>2.750304351888579</v>
+        <v>2.750304348342393</v>
       </c>
       <c r="RQ2" t="n">
-        <v>380804.8195133525</v>
+        <v>380804.8194372678</v>
       </c>
       <c r="RR2" t="n">
         <v>0</v>
       </c>
       <c r="RS2" t="n">
-        <v>349243.7478120833</v>
+        <v>349243.7418089735</v>
       </c>
       <c r="RT2" t="n">
-        <v>2666.336731017334</v>
+        <v>2666.33674135973</v>
       </c>
       <c r="RU2" t="n">
-        <v>6.130849979045095</v>
+        <v>6.130850625502262</v>
       </c>
     </row>
     <row r="3">
@@ -10179,34 +10179,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01595100147446105</v>
+        <v>0.01595100151302524</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.793991203538989e-07</v>
+        <v>-1.793991200322589e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01379123038059478</v>
+        <v>0.01379123038188909</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02518399104906791</v>
+        <v>0.02518399103202515</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05492604350500339</v>
+        <v>0.05492604352781945</v>
       </c>
       <c r="H3" t="n">
-        <v>1.548761119352093e-14</v>
+        <v>-2.164977225271869e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>81.75758172388146</v>
+        <v>81.75758172332439</v>
       </c>
       <c r="K3" t="n">
-        <v>81.75758172388146</v>
+        <v>81.75758172332439</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -10215,10 +10215,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>81.75758172388146</v>
+        <v>81.75758172332439</v>
       </c>
       <c r="O3" t="n">
-        <v>81.75758172388146</v>
+        <v>81.75758172332439</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -10227,97 +10227,97 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>292.2676180724939</v>
+        <v>292.2676180726396</v>
       </c>
       <c r="S3" t="n">
-        <v>132637.8394374972</v>
+        <v>132637.8394377278</v>
       </c>
       <c r="T3" t="n">
-        <v>1.581790096100466</v>
+        <v>1.581790096102427</v>
       </c>
       <c r="U3" t="n">
-        <v>334589.2834750873</v>
+        <v>334589.2834751915</v>
       </c>
       <c r="V3" t="n">
-        <v>418442.2800038208</v>
+        <v>418442.2800039668</v>
       </c>
       <c r="W3" t="n">
         <v>3782.917347723465</v>
       </c>
       <c r="X3" t="n">
-        <v>-687181.9625804326</v>
+        <v>-687181.9625808375</v>
       </c>
       <c r="Y3" t="n">
-        <v>717.7090713704013</v>
+        <v>717.7090713704081</v>
       </c>
       <c r="Z3" t="n">
-        <v>1006.643209103393</v>
+        <v>1006.6432091034</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402578355574213</v>
+        <v>1.40257835557421</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9994973723756393</v>
+        <v>0.9994973723756403</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.8584121221872</v>
+        <v>342.8584121222727</v>
       </c>
       <c r="AD3" t="n">
-        <v>185942.4165867143</v>
+        <v>185942.4165870376</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.378009054398031e-06</v>
+        <v>5.378009054388681e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>132571.8565723837</v>
+        <v>132571.8565726144</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.543079095780814e-06</v>
+        <v>7.543079095767688e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003434455038600029</v>
+        <v>0.00343445503859832</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.816725856046656e-05</v>
+        <v>1.816725856047369e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02581791190127332</v>
+        <v>0.02581791190128429</v>
       </c>
       <c r="AK3" t="n">
-        <v>132637.8394374972</v>
+        <v>132637.8394377278</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.581790096100466</v>
+        <v>1.581790096102427</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.581790096100466</v>
+        <v>1.581790096102427</v>
       </c>
       <c r="AN3" t="n">
-        <v>334589.2834750873</v>
+        <v>334589.2834751915</v>
       </c>
       <c r="AO3" t="n">
-        <v>418442.2800038208</v>
+        <v>418442.2800039668</v>
       </c>
       <c r="AP3" t="n">
         <v>3782.917347723465</v>
       </c>
       <c r="AQ3" t="n">
-        <v>717.7090713704013</v>
+        <v>717.7090713704081</v>
       </c>
       <c r="AR3" t="n">
-        <v>1006.643209103393</v>
+        <v>1006.6432091034</v>
       </c>
       <c r="AS3" t="n">
-        <v>342.8584121221872</v>
+        <v>342.8584121222727</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9994973723756393</v>
+        <v>0.9994973723756403</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.816725856046656e-05</v>
+        <v>1.816725856047369e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02581791190127332</v>
+        <v>0.02581791190128429</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
@@ -10328,25 +10328,25 @@
         <v>1</v>
       </c>
       <c r="AY3" t="n">
-        <v>295.6000000001887</v>
+        <v>295.6000000001888</v>
       </c>
       <c r="AZ3" t="n">
-        <v>137999.9999953522</v>
+        <v>137999.9999953525</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.627145819756432</v>
+        <v>1.627145819756435</v>
       </c>
       <c r="BB3" t="n">
         <v>336973.3475829663</v>
       </c>
       <c r="BC3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="BD3" t="n">
-        <v>3782.917347723358</v>
+        <v>3782.917347723357</v>
       </c>
       <c r="BE3" t="n">
-        <v>-696445.9368990484</v>
+        <v>-696445.9368990486</v>
       </c>
       <c r="BF3" t="n">
         <v>717.8632360362602</v>
@@ -10364,43 +10364,43 @@
         <v>344.8092213941073</v>
       </c>
       <c r="BK3" t="n">
-        <v>193456.8974372405</v>
+        <v>193456.897437241</v>
       </c>
       <c r="BL3" t="n">
-        <v>5.169110087296892e-06</v>
+        <v>5.169110087296878e-06</v>
       </c>
       <c r="BM3" t="n">
-        <v>137934.6617461893</v>
+        <v>137934.6617461897</v>
       </c>
       <c r="BN3" t="n">
-        <v>7.249809346979655e-06</v>
+        <v>7.249809346979635e-06</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.003395798695744088</v>
+        <v>0.003395798695744087</v>
       </c>
       <c r="BP3" t="n">
         <v>1.832995174012606e-05</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.02606863419707386</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="BR3" t="n">
-        <v>137999.9999953522</v>
+        <v>137999.9999953525</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.627145819756432</v>
+        <v>1.627145819756435</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.627145819756432</v>
+        <v>1.627145819756435</v>
       </c>
       <c r="BU3" t="n">
         <v>336973.3475829663</v>
       </c>
       <c r="BV3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="BW3" t="n">
-        <v>3782.917347723358</v>
+        <v>3782.917347723357</v>
       </c>
       <c r="BX3" t="n">
         <v>717.8632360362602</v>
@@ -10418,7 +10418,7 @@
         <v>1.832995174012606e-05</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.02606863419707386</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="CD3" t="inlineStr">
         <is>
@@ -10429,25 +10429,25 @@
         <v>1</v>
       </c>
       <c r="CF3" t="n">
-        <v>295.6000000001887</v>
+        <v>295.6000000001888</v>
       </c>
       <c r="CG3" t="n">
-        <v>137999.9999953522</v>
+        <v>137999.9999953525</v>
       </c>
       <c r="CH3" t="n">
-        <v>1.627145819756432</v>
+        <v>1.627145819756435</v>
       </c>
       <c r="CI3" t="n">
         <v>336973.3475829663</v>
       </c>
       <c r="CJ3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="CK3" t="n">
-        <v>3782.917347723358</v>
+        <v>3782.917347723357</v>
       </c>
       <c r="CL3" t="n">
-        <v>-696445.9368990484</v>
+        <v>-696445.9368990486</v>
       </c>
       <c r="CM3" t="n">
         <v>717.8632360362602</v>
@@ -10465,43 +10465,43 @@
         <v>344.8092213941073</v>
       </c>
       <c r="CR3" t="n">
-        <v>193456.8974372405</v>
+        <v>193456.897437241</v>
       </c>
       <c r="CS3" t="n">
-        <v>5.169110087296892e-06</v>
+        <v>5.169110087296878e-06</v>
       </c>
       <c r="CT3" t="n">
-        <v>137934.6617461893</v>
+        <v>137934.6617461897</v>
       </c>
       <c r="CU3" t="n">
-        <v>7.249809346979655e-06</v>
+        <v>7.249809346979635e-06</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.003395798695744088</v>
+        <v>0.003395798695744087</v>
       </c>
       <c r="CW3" t="n">
         <v>1.832995174012606e-05</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.02606863419707386</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="CY3" t="n">
-        <v>137999.9999953522</v>
+        <v>137999.9999953525</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.627145819756432</v>
+        <v>1.627145819756435</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.627145819756432</v>
+        <v>1.627145819756435</v>
       </c>
       <c r="DB3" t="n">
         <v>336973.3475829663</v>
       </c>
       <c r="DC3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="DD3" t="n">
-        <v>3782.917347723358</v>
+        <v>3782.917347723357</v>
       </c>
       <c r="DE3" t="n">
         <v>717.8632360362602</v>
@@ -10519,7 +10519,7 @@
         <v>1.832995174012606e-05</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.02606863419707386</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="DK3" t="inlineStr">
         <is>
@@ -10530,16 +10530,16 @@
         <v>1</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.2384587305816048</v>
+        <v>0.2384587305799205</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.2384587305816048</v>
+        <v>0.2384587305799205</v>
       </c>
       <c r="DO3" t="n">
-        <v>186219.5323184961</v>
+        <v>186219.532317385</v>
       </c>
       <c r="DP3" t="n">
-        <v>2.776369934696068</v>
+        <v>2.776369934680593</v>
       </c>
       <c r="DQ3" t="n">
         <v>421784.4310885898</v>
@@ -10548,121 +10548,121 @@
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>309.3780777049781</v>
+        <v>309.3780731116444</v>
       </c>
       <c r="DT3" t="n">
-        <v>126.4136416793479</v>
+        <v>126.4136398024856</v>
       </c>
       <c r="DU3" t="n">
-        <v>282.3727787195376</v>
+        <v>282.3727745271513</v>
       </c>
       <c r="DV3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW3" t="n">
-        <v>309.3780777049781</v>
+        <v>309.3780731116444</v>
       </c>
       <c r="DX3" t="n">
-        <v>126.4136416793479</v>
+        <v>126.4136398024856</v>
       </c>
       <c r="DY3" t="n">
-        <v>282.3727787195376</v>
+        <v>282.3727745271513</v>
       </c>
       <c r="DZ3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA3" t="n">
-        <v>247.8365046685841</v>
+        <v>247.8365060877543</v>
       </c>
       <c r="EB3" t="n">
-        <v>72726.23757269354</v>
+        <v>72726.23907067455</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.02301466780319</v>
+        <v>1.023014683012053</v>
       </c>
       <c r="ED3" t="n">
-        <v>302836.9115763934</v>
+        <v>302836.9125900651</v>
       </c>
       <c r="EE3" t="n">
-        <v>373927.0336064763</v>
+        <v>373927.0350275528</v>
       </c>
       <c r="EF3" t="n">
-        <v>3790.093061366652</v>
+        <v>3790.093061192326</v>
       </c>
       <c r="EG3" t="n">
-        <v>-565396.3830912882</v>
+        <v>-565396.3870057942</v>
       </c>
       <c r="EH3" t="n">
-        <v>716.2529430500889</v>
+        <v>716.2529430807234</v>
       </c>
       <c r="EI3" t="n">
-        <v>1004.831581195297</v>
+        <v>1004.831581236523</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.402900457087584</v>
+        <v>1.402900457085139</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.9992812858995701</v>
+        <v>0.9992812859041521</v>
       </c>
       <c r="EL3" t="n">
-        <v>315.6911153773839</v>
+        <v>315.6911162824286</v>
       </c>
       <c r="EM3" t="n">
-        <v>101954.5423819441</v>
+        <v>101954.5444822532</v>
       </c>
       <c r="EN3" t="n">
-        <v>9.808292761040308e-06</v>
+        <v>9.808292558985104e-06</v>
       </c>
       <c r="EO3" t="n">
-        <v>72674.11017428948</v>
+        <v>72674.11167153523</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.376005839771229e-05</v>
+        <v>1.376005811422497e-05</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.004048559449481963</v>
+        <v>0.004048559426354546</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.592113115283393e-05</v>
+        <v>1.592113122699377e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.02238288371392371</v>
+        <v>0.02238288382651553</v>
       </c>
       <c r="ET3" t="n">
-        <v>72726.23757269354</v>
+        <v>72726.23907067455</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.02301466780319</v>
+        <v>1.023014683012053</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.02301466780319</v>
+        <v>1.023014683012053</v>
       </c>
       <c r="EW3" t="n">
-        <v>302836.9115763934</v>
+        <v>302836.9125900651</v>
       </c>
       <c r="EX3" t="n">
-        <v>373927.0336064763</v>
+        <v>373927.0350275528</v>
       </c>
       <c r="EY3" t="n">
-        <v>3790.093061366652</v>
+        <v>3790.093061192326</v>
       </c>
       <c r="EZ3" t="n">
-        <v>716.2529430500889</v>
+        <v>716.2529430807234</v>
       </c>
       <c r="FA3" t="n">
-        <v>1004.831581195297</v>
+        <v>1004.831581236523</v>
       </c>
       <c r="FB3" t="n">
-        <v>315.6911153773839</v>
+        <v>315.6911162824286</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.9992812858995701</v>
+        <v>0.9992812859041521</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.592113115283393e-05</v>
+        <v>1.592113122699377e-05</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.02238288371392371</v>
+        <v>0.02238288382651553</v>
       </c>
       <c r="FF3" t="inlineStr">
         <is>
@@ -10673,97 +10673,97 @@
         <v>1</v>
       </c>
       <c r="FH3" t="n">
-        <v>295.5920968649956</v>
+        <v>295.5920968651853</v>
       </c>
       <c r="FI3" t="n">
-        <v>134591.4165373196</v>
+        <v>134591.4166190968</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.586979527006096</v>
+        <v>1.586979527969761</v>
       </c>
       <c r="FK3" t="n">
-        <v>336974.6309325203</v>
+        <v>336974.6309324898</v>
       </c>
       <c r="FL3" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="FM3" t="n">
-        <v>3790.093061376302</v>
+        <v>3790.093061201975</v>
       </c>
       <c r="FN3" t="n">
-        <v>-698537.1242370015</v>
+        <v>-698537.1241861907</v>
       </c>
       <c r="FO3" t="n">
-        <v>717.8543580607692</v>
+        <v>717.8543580609821</v>
       </c>
       <c r="FP3" t="n">
-        <v>1006.765618720382</v>
+        <v>1006.765618721724</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.402465008974919</v>
+        <v>1.402465008976374</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.9995326648234781</v>
+        <v>0.9995326648231997</v>
       </c>
       <c r="FS3" t="n">
-        <v>344.8011163635664</v>
+        <v>344.8011163637609</v>
       </c>
       <c r="FT3" t="n">
-        <v>188672.5202355002</v>
+        <v>188672.5203502811</v>
       </c>
       <c r="FU3" t="n">
-        <v>5.30018891331819e-06</v>
+        <v>5.300188910093766e-06</v>
       </c>
       <c r="FV3" t="n">
-        <v>134529.2175049726</v>
+        <v>134529.2175866753</v>
       </c>
       <c r="FW3" t="n">
-        <v>7.433329491885563e-06</v>
+        <v>7.433329487371128e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.003395573843598323</v>
+        <v>0.003395573843603716</v>
       </c>
       <c r="FY3" t="n">
-        <v>1.832907665247048e-05</v>
+        <v>1.832907665249148e-05</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.02606695184418862</v>
+        <v>0.02606695184422899</v>
       </c>
       <c r="GA3" t="n">
-        <v>134591.4165373196</v>
+        <v>134591.4166190968</v>
       </c>
       <c r="GB3" t="n">
-        <v>1.586979527006096</v>
+        <v>1.586979527969761</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.586979527006096</v>
+        <v>1.586979527969761</v>
       </c>
       <c r="GD3" t="n">
-        <v>336974.6309325203</v>
+        <v>336974.6309324898</v>
       </c>
       <c r="GE3" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="GF3" t="n">
-        <v>3790.093061376302</v>
+        <v>3790.093061201975</v>
       </c>
       <c r="GG3" t="n">
-        <v>717.8543580607692</v>
+        <v>717.8543580609821</v>
       </c>
       <c r="GH3" t="n">
-        <v>1006.765618720382</v>
+        <v>1006.765618721724</v>
       </c>
       <c r="GI3" t="n">
-        <v>344.8011163635664</v>
+        <v>344.8011163637609</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.9995326648234781</v>
+        <v>0.9995326648231997</v>
       </c>
       <c r="GK3" t="n">
-        <v>1.832907665247048e-05</v>
+        <v>1.832907665249148e-05</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.02606695184418862</v>
+        <v>0.02606695184422899</v>
       </c>
       <c r="GM3" t="inlineStr">
         <is>
@@ -10774,97 +10774,97 @@
         <v>1</v>
       </c>
       <c r="GO3" t="n">
-        <v>295.5920968649956</v>
+        <v>295.5920968651853</v>
       </c>
       <c r="GP3" t="n">
-        <v>134591.4165373196</v>
+        <v>134591.4166190968</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.586979527006096</v>
+        <v>1.586979527969761</v>
       </c>
       <c r="GR3" t="n">
-        <v>336974.6309325203</v>
+        <v>336974.6309324898</v>
       </c>
       <c r="GS3" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="GT3" t="n">
-        <v>3790.093061376302</v>
+        <v>3790.093061201975</v>
       </c>
       <c r="GU3" t="n">
-        <v>-698537.1242370015</v>
+        <v>-698537.1241861907</v>
       </c>
       <c r="GV3" t="n">
-        <v>717.8543580607692</v>
+        <v>717.8543580609821</v>
       </c>
       <c r="GW3" t="n">
-        <v>1006.765618720382</v>
+        <v>1006.765618721724</v>
       </c>
       <c r="GX3" t="n">
-        <v>1.402465008974919</v>
+        <v>1.402465008976374</v>
       </c>
       <c r="GY3" t="n">
-        <v>0.9995326648234781</v>
+        <v>0.9995326648231997</v>
       </c>
       <c r="GZ3" t="n">
-        <v>344.8011163635664</v>
+        <v>344.8011163637609</v>
       </c>
       <c r="HA3" t="n">
-        <v>188672.5202355002</v>
+        <v>188672.5203502811</v>
       </c>
       <c r="HB3" t="n">
-        <v>5.30018891331819e-06</v>
+        <v>5.300188910093766e-06</v>
       </c>
       <c r="HC3" t="n">
-        <v>134529.2175049726</v>
+        <v>134529.2175866753</v>
       </c>
       <c r="HD3" t="n">
-        <v>7.433329491885563e-06</v>
+        <v>7.433329487371128e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>0.003395573843598323</v>
+        <v>0.003395573843603716</v>
       </c>
       <c r="HF3" t="n">
-        <v>1.832907665247048e-05</v>
+        <v>1.832907665249148e-05</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.02606695184418862</v>
+        <v>0.02606695184422899</v>
       </c>
       <c r="HH3" t="n">
-        <v>134591.4165373196</v>
+        <v>134591.4166190968</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.586979527006096</v>
+        <v>1.586979527969761</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.586979527006096</v>
+        <v>1.586979527969761</v>
       </c>
       <c r="HK3" t="n">
-        <v>336974.6309325203</v>
+        <v>336974.6309324898</v>
       </c>
       <c r="HL3" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="HM3" t="n">
-        <v>3790.093061376302</v>
+        <v>3790.093061201975</v>
       </c>
       <c r="HN3" t="n">
-        <v>717.8543580607692</v>
+        <v>717.8543580609821</v>
       </c>
       <c r="HO3" t="n">
-        <v>1006.765618720382</v>
+        <v>1006.765618721724</v>
       </c>
       <c r="HP3" t="n">
-        <v>344.8011163635664</v>
+        <v>344.8011163637609</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.9995326648234781</v>
+        <v>0.9995326648231997</v>
       </c>
       <c r="HR3" t="n">
-        <v>1.832907665247048e-05</v>
+        <v>1.832907665249148e-05</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.02606695184418862</v>
+        <v>0.02606695184422899</v>
       </c>
       <c r="HT3" t="inlineStr">
         <is>
@@ -10875,193 +10875,193 @@
         <v>1</v>
       </c>
       <c r="HV3" t="n">
-        <v>0.01619337326728139</v>
+        <v>0.01619337325422797</v>
       </c>
       <c r="HW3" t="n">
-        <v>-1.972005779178367e-07</v>
+        <v>-1.972005749201768e-07</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.01379727827868003</v>
+        <v>0.01379727827867991</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.02510093007318914</v>
+        <v>0.02510093007319197</v>
       </c>
       <c r="HZ3" t="n">
         <v>0</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.05509138441857264</v>
+        <v>0.05509138440552493</v>
       </c>
       <c r="IB3" t="n">
-        <v>5.578243872948752e-06</v>
+        <v>5.578191043090208e-06</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.980002485452088</v>
+        <v>0.9800024680924619</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.980002485452088</v>
+        <v>0.9800024680924619</v>
       </c>
       <c r="IE3" t="n">
-        <v>520038.1647795875</v>
+        <v>520038.1623675301</v>
       </c>
       <c r="IF3" t="n">
-        <v>2.776362991726622</v>
+        <v>2.77636299178137</v>
       </c>
       <c r="IG3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="IH3" t="n">
         <v>0</v>
       </c>
       <c r="II3" t="n">
-        <v>372154.9647160987</v>
+        <v>372154.9661699248</v>
       </c>
       <c r="IJ3" t="n">
-        <v>1485.077880085213</v>
+        <v>1485.077882414742</v>
       </c>
       <c r="IK3" t="n">
         <v>0</v>
       </c>
       <c r="IL3" t="n">
-        <v>0.02459644718233777</v>
+        <v>0.0245964472205242</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.002168221029457124</v>
+        <v>0.002168221110603813</v>
       </c>
       <c r="IN3" t="n">
-        <v>0.01188668129739154</v>
+        <v>0.01188668129219711</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.03204646814304614</v>
+        <v>0.03204646819156531</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.04267186618208298</v>
+        <v>0.04267186627366214</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.1133696838343156</v>
+        <v>0.1133696840885526</v>
       </c>
       <c r="IR3" t="n">
-        <v>1.201437838105335e-10</v>
+        <v>3.493901001849764e-11</v>
       </c>
       <c r="IS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IT3" t="n">
-        <v>272.2090735705625</v>
+        <v>272.209074018986</v>
       </c>
       <c r="IU3" t="n">
-        <v>111.987131410614</v>
+        <v>111.987131420674</v>
       </c>
       <c r="IV3" t="n">
-        <v>248.1061509365815</v>
+        <v>248.1061514240275</v>
       </c>
       <c r="IW3" t="n">
-        <v>65.70711543977737</v>
+        <v>65.70711548005707</v>
       </c>
       <c r="IX3" t="n">
-        <v>139.2747151689209</v>
+        <v>139.274715466811</v>
       </c>
       <c r="IY3" t="n">
-        <v>111.987131410614</v>
+        <v>111.987131420674</v>
       </c>
       <c r="IZ3" t="n">
-        <v>82.80295093658148</v>
+        <v>82.80295142402753</v>
       </c>
       <c r="JA3" t="n">
-        <v>36.47911084894725</v>
+        <v>36.47911100772674</v>
       </c>
       <c r="JB3" t="n">
-        <v>258.6294204773241</v>
+        <v>258.6294203554478</v>
       </c>
       <c r="JC3" t="n">
-        <v>84817.68657829167</v>
+        <v>84817.68643339135</v>
       </c>
       <c r="JD3" t="n">
-        <v>1.143266862418968</v>
+        <v>1.143266861005146</v>
       </c>
       <c r="JE3" t="n">
-        <v>310546.6625211271</v>
+        <v>310546.6624340586</v>
       </c>
       <c r="JF3" t="n">
-        <v>384735.5412216181</v>
+        <v>384735.5410995529</v>
       </c>
       <c r="JG3" t="n">
-        <v>3788.663779725741</v>
+        <v>3788.663779743826</v>
       </c>
       <c r="JH3" t="n">
-        <v>-595124.3765122787</v>
+        <v>-595124.3761772729</v>
       </c>
       <c r="JI3" t="n">
-        <v>716.5121736277182</v>
+        <v>716.5121736244821</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1005.172733108361</v>
+        <v>1005.17273310418</v>
       </c>
       <c r="JK3" t="n">
-        <v>1.402869023172555</v>
+        <v>1.402869023173056</v>
       </c>
       <c r="JL3" t="n">
-        <v>0.9993201636387306</v>
+        <v>0.9993201636382469</v>
       </c>
       <c r="JM3" t="n">
-        <v>322.5008365412062</v>
+        <v>322.500836465119</v>
       </c>
       <c r="JN3" t="n">
-        <v>118907.5159817097</v>
+        <v>118907.5157785552</v>
       </c>
       <c r="JO3" t="n">
-        <v>8.409897320147699e-06</v>
+        <v>8.40989733451608e-06</v>
       </c>
       <c r="JP3" t="n">
-        <v>84760.24063372868</v>
+        <v>84760.24048888485</v>
       </c>
       <c r="JQ3" t="n">
-        <v>1.179798443849709e-05</v>
+        <v>1.179798445865826e-05</v>
       </c>
       <c r="JR3" t="n">
-        <v>0.003880006726564379</v>
+        <v>0.003880006728388328</v>
       </c>
       <c r="JS3" t="n">
-        <v>1.648045579007016e-05</v>
+        <v>1.648045578380603e-05</v>
       </c>
       <c r="JT3" t="n">
-        <v>0.02323360408082331</v>
+        <v>0.02323360407127846</v>
       </c>
       <c r="JU3" t="n">
-        <v>84817.68657829167</v>
+        <v>84817.68643339135</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.143266862418968</v>
+        <v>1.143266861005146</v>
       </c>
       <c r="JW3" t="n">
-        <v>1.143266862418968</v>
+        <v>1.143266861005146</v>
       </c>
       <c r="JX3" t="n">
-        <v>310546.6625211271</v>
+        <v>310546.6624340586</v>
       </c>
       <c r="JY3" t="n">
-        <v>384735.5412216181</v>
+        <v>384735.5410995529</v>
       </c>
       <c r="JZ3" t="n">
-        <v>3788.663779725741</v>
+        <v>3788.663779743826</v>
       </c>
       <c r="KA3" t="n">
-        <v>716.5121736277182</v>
+        <v>716.5121736244821</v>
       </c>
       <c r="KB3" t="n">
-        <v>1005.172733108361</v>
+        <v>1005.17273310418</v>
       </c>
       <c r="KC3" t="n">
-        <v>322.5008365412062</v>
+        <v>322.500836465119</v>
       </c>
       <c r="KD3" t="n">
-        <v>0.9993201636387306</v>
+        <v>0.9993201636382469</v>
       </c>
       <c r="KE3" t="n">
-        <v>1.648045579007016e-05</v>
+        <v>1.648045578380603e-05</v>
       </c>
       <c r="KF3" t="n">
-        <v>0.02323360408082331</v>
+        <v>0.02323360407127846</v>
       </c>
       <c r="KG3" t="inlineStr">
         <is>
@@ -11072,97 +11072,97 @@
         <v>1</v>
       </c>
       <c r="KI3" t="n">
-        <v>295.5936554167141</v>
+        <v>295.5936554164941</v>
       </c>
       <c r="KJ3" t="n">
-        <v>135263.5641124948</v>
+        <v>135263.5641036484</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.594900121371254</v>
+        <v>1.594900121268088</v>
       </c>
       <c r="KL3" t="n">
-        <v>336974.3779074046</v>
+        <v>336974.3779072646</v>
       </c>
       <c r="KM3" t="n">
-        <v>421784.4310887904</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="KN3" t="n">
-        <v>3788.663779730942</v>
+        <v>3788.663779749028</v>
       </c>
       <c r="KO3" t="n">
-        <v>-698120.5447067833</v>
+        <v>-698120.5447114964</v>
       </c>
       <c r="KP3" t="n">
-        <v>717.856108831401</v>
+        <v>717.8561088313696</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1006.776654762851</v>
+        <v>1006.7766547627</v>
       </c>
       <c r="KR3" t="n">
-        <v>1.402476962133518</v>
+        <v>1.402476962133369</v>
       </c>
       <c r="KS3" t="n">
-        <v>0.9995303767051035</v>
+        <v>0.999530376705131</v>
       </c>
       <c r="KT3" t="n">
-        <v>344.8027143552225</v>
+        <v>344.8027143550854</v>
       </c>
       <c r="KU3" t="n">
-        <v>189615.9399021467</v>
+        <v>189615.9398897306</v>
       </c>
       <c r="KV3" t="n">
-        <v>5.273818227075532e-06</v>
+        <v>5.273818227420863e-06</v>
       </c>
       <c r="KW3" t="n">
-        <v>135200.75197078</v>
+        <v>135200.7519619413</v>
       </c>
       <c r="KX3" t="n">
-        <v>7.396408565953267e-06</v>
+        <v>7.396408566436803e-06</v>
       </c>
       <c r="KY3" t="n">
-        <v>0.003395618189363622</v>
+        <v>0.003395618189365355</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1.832924920427414e-05</v>
+        <v>1.83292492042622e-05</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.02606728356296526</v>
+        <v>0.02606728356294602</v>
       </c>
       <c r="LB3" t="n">
-        <v>135263.5641124948</v>
+        <v>135263.5641036484</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.594900121371254</v>
+        <v>1.594900121268088</v>
       </c>
       <c r="LD3" t="n">
-        <v>1.594900121371254</v>
+        <v>1.594900121268088</v>
       </c>
       <c r="LE3" t="n">
-        <v>336974.3779074046</v>
+        <v>336974.3779072646</v>
       </c>
       <c r="LF3" t="n">
-        <v>421784.4310887904</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="LG3" t="n">
-        <v>3788.663779730942</v>
+        <v>3788.663779749028</v>
       </c>
       <c r="LH3" t="n">
-        <v>717.856108831401</v>
+        <v>717.8561088313696</v>
       </c>
       <c r="LI3" t="n">
-        <v>1006.776654762851</v>
+        <v>1006.7766547627</v>
       </c>
       <c r="LJ3" t="n">
-        <v>344.8027143552225</v>
+        <v>344.8027143550854</v>
       </c>
       <c r="LK3" t="n">
-        <v>0.9995303767051035</v>
+        <v>0.999530376705131</v>
       </c>
       <c r="LL3" t="n">
-        <v>1.832924920427414e-05</v>
+        <v>1.83292492042622e-05</v>
       </c>
       <c r="LM3" t="n">
-        <v>0.02606728356296526</v>
+        <v>0.02606728356294602</v>
       </c>
       <c r="LN3" t="inlineStr">
         <is>
@@ -11173,97 +11173,97 @@
         <v>1</v>
       </c>
       <c r="LP3" t="n">
-        <v>268.3105684684351</v>
+        <v>268.3105683876985</v>
       </c>
       <c r="LQ3" t="n">
-        <v>96432.56306299701</v>
+        <v>96432.56295558937</v>
       </c>
       <c r="LR3" t="n">
-        <v>1.252868274599676</v>
+        <v>1.252868273581674</v>
       </c>
       <c r="LS3" t="n">
-        <v>317464.8294940048</v>
+        <v>317464.8294363165</v>
       </c>
       <c r="LT3" t="n">
-        <v>394434.2643644103</v>
+        <v>394434.2642835331</v>
       </c>
       <c r="LU3" t="n">
-        <v>3788.663779732391</v>
+        <v>3788.663779750475</v>
       </c>
       <c r="LV3" t="n">
-        <v>-622104.2681113573</v>
+        <v>-622104.2678912031</v>
       </c>
       <c r="LW3" t="n">
-        <v>716.7910622964376</v>
+        <v>716.7910622938916</v>
       </c>
       <c r="LX3" t="n">
-        <v>1005.518949160803</v>
+        <v>1005.518949157587</v>
       </c>
       <c r="LY3" t="n">
-        <v>1.402806203999455</v>
+        <v>1.402806203999952</v>
       </c>
       <c r="LZ3" t="n">
-        <v>0.9993653520370847</v>
+        <v>0.9993653520367189</v>
       </c>
       <c r="MA3" t="n">
-        <v>328.4889879103214</v>
+        <v>328.4889878608361</v>
       </c>
       <c r="MB3" t="n">
-        <v>135190.7701871478</v>
+        <v>135190.7700365685</v>
       </c>
       <c r="MC3" t="n">
-        <v>7.396954678308852e-06</v>
+        <v>7.39695468654779e-06</v>
       </c>
       <c r="MD3" t="n">
-        <v>96371.66545294262</v>
+        <v>96371.66534556699</v>
       </c>
       <c r="ME3" t="n">
-        <v>1.037649391343445e-05</v>
+        <v>1.037649392499576e-05</v>
       </c>
       <c r="MF3" t="n">
-        <v>0.003740274706354011</v>
+        <v>0.003740274707476529</v>
       </c>
       <c r="MG3" t="n">
-        <v>1.69743649729836e-05</v>
+        <v>1.697436496889342e-05</v>
       </c>
       <c r="MH3" t="n">
-        <v>0.02398732772661829</v>
+        <v>0.02398732772036581</v>
       </c>
       <c r="MI3" t="n">
-        <v>96432.56306299701</v>
+        <v>96432.56295558937</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.252868274599676</v>
+        <v>1.252868273581674</v>
       </c>
       <c r="MK3" t="n">
-        <v>1.252868274599676</v>
+        <v>1.252868273581674</v>
       </c>
       <c r="ML3" t="n">
-        <v>317464.8294940048</v>
+        <v>317464.8294363165</v>
       </c>
       <c r="MM3" t="n">
-        <v>394434.2643644103</v>
+        <v>394434.2642835331</v>
       </c>
       <c r="MN3" t="n">
-        <v>3788.663779732391</v>
+        <v>3788.663779750475</v>
       </c>
       <c r="MO3" t="n">
-        <v>716.7910622964376</v>
+        <v>716.7910622938916</v>
       </c>
       <c r="MP3" t="n">
-        <v>1005.518949160803</v>
+        <v>1005.518949157587</v>
       </c>
       <c r="MQ3" t="n">
-        <v>328.4889879103214</v>
+        <v>328.4889878608361</v>
       </c>
       <c r="MR3" t="n">
-        <v>0.9993653520370847</v>
+        <v>0.9993653520367189</v>
       </c>
       <c r="MS3" t="n">
-        <v>1.69743649729836e-05</v>
+        <v>1.697436496889342e-05</v>
       </c>
       <c r="MT3" t="n">
-        <v>0.02398732772661829</v>
+        <v>0.02398732772036581</v>
       </c>
       <c r="MU3" t="inlineStr">
         <is>
@@ -11274,139 +11274,139 @@
         <v>1</v>
       </c>
       <c r="MW3" t="n">
-        <v>0.8440569534329939</v>
+        <v>0.844056955022588</v>
       </c>
       <c r="MX3" t="n">
-        <v>0.4318584617101471</v>
+        <v>0.4318584627357229</v>
       </c>
       <c r="MY3" t="n">
-        <v>251782.2367971063</v>
+        <v>251782.2371199694</v>
       </c>
       <c r="MZ3" t="n">
-        <v>2.748629349078043</v>
+        <v>2.748629345925862</v>
       </c>
       <c r="NA3" t="n">
-        <v>380771.6903991901</v>
+        <v>380771.6903185133</v>
       </c>
       <c r="NB3" t="n">
         <v>165.3032</v>
       </c>
       <c r="NC3" t="n">
-        <v>165.522198582066</v>
+        <v>165.5221978125134</v>
       </c>
       <c r="ND3" t="n">
-        <v>139.8272907767949</v>
+        <v>139.8272903531256</v>
       </c>
       <c r="NE3" t="n">
-        <v>-88.57723735510478</v>
+        <v>-88.57723658586056</v>
       </c>
       <c r="NF3" t="n">
-        <v>-32.35327852250752</v>
+        <v>-32.35327837604775</v>
       </c>
       <c r="NG3" t="n">
-        <v>289.8395206275321</v>
+        <v>289.8395197493338</v>
       </c>
       <c r="NH3" t="n">
-        <v>139.8272907767949</v>
+        <v>139.8272903531256</v>
       </c>
       <c r="NI3" t="n">
-        <v>-253.8804373551048</v>
+        <v>-253.8804365858606</v>
       </c>
       <c r="NJ3" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="NK3" t="n">
-        <v>226.3584218695175</v>
+        <v>226.3584220431938</v>
       </c>
       <c r="NL3" t="n">
-        <v>50679.21462053969</v>
+        <v>50679.21476219811</v>
       </c>
       <c r="NM3" t="n">
-        <v>0.7805498008064656</v>
+        <v>0.7805498023891668</v>
       </c>
       <c r="NN3" t="n">
-        <v>287503.2041194796</v>
+        <v>287503.2042435061</v>
       </c>
       <c r="NO3" t="n">
-        <v>352430.7905056113</v>
+        <v>352430.7906794712</v>
       </c>
       <c r="NP3" t="n">
-        <v>3802.968979725419</v>
+        <v>3802.968979691731</v>
       </c>
       <c r="NQ3" t="n">
-        <v>-508403.2661637635</v>
+        <v>-508403.2666427637</v>
       </c>
       <c r="NR3" t="n">
-        <v>715.8708609534403</v>
+        <v>715.8708609557872</v>
       </c>
       <c r="NS3" t="n">
-        <v>1004.24446607466</v>
+        <v>1004.244466078261</v>
       </c>
       <c r="NT3" t="n">
-        <v>1.402829086711458</v>
+        <v>1.40282908671189</v>
       </c>
       <c r="NU3" t="n">
-        <v>0.9992550947741484</v>
+        <v>0.9992550947744082</v>
       </c>
       <c r="NV3" t="n">
-        <v>301.6861723805977</v>
+        <v>301.6861724964597</v>
       </c>
       <c r="NW3" t="n">
-        <v>71041.38622353533</v>
+        <v>71041.3864221508</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.407630190173161e-05</v>
+        <v>1.407630186237749e-05</v>
       </c>
       <c r="NY3" t="n">
-        <v>50641.51213892498</v>
+        <v>50641.51228049144</v>
       </c>
       <c r="NZ3" t="n">
-        <v>1.974664574108091e-05</v>
+        <v>1.97466456858799e-05</v>
       </c>
       <c r="OA3" t="n">
-        <v>0.004431251512453127</v>
+        <v>0.00443125150906167</v>
       </c>
       <c r="OB3" t="n">
-        <v>1.477914102554642e-05</v>
+        <v>1.477914103493897e-05</v>
       </c>
       <c r="OC3" t="n">
-        <v>0.02065511729184214</v>
+        <v>0.02065511730599762</v>
       </c>
       <c r="OD3" t="n">
-        <v>50679.21462053969</v>
+        <v>50679.21476219811</v>
       </c>
       <c r="OE3" t="n">
-        <v>0.7805498008064656</v>
+        <v>0.7805498023891668</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.7805498008064656</v>
+        <v>0.7805498023891668</v>
       </c>
       <c r="OG3" t="n">
-        <v>287503.2041194796</v>
+        <v>287503.2042435061</v>
       </c>
       <c r="OH3" t="n">
-        <v>352430.7905056113</v>
+        <v>352430.7906794712</v>
       </c>
       <c r="OI3" t="n">
-        <v>3802.968979725419</v>
+        <v>3802.968979691731</v>
       </c>
       <c r="OJ3" t="n">
-        <v>715.8708609534403</v>
+        <v>715.8708609557872</v>
       </c>
       <c r="OK3" t="n">
-        <v>1004.24446607466</v>
+        <v>1004.244466078261</v>
       </c>
       <c r="OL3" t="n">
-        <v>301.6861723805977</v>
+        <v>301.6861724964597</v>
       </c>
       <c r="OM3" t="n">
-        <v>0.9992550947741484</v>
+        <v>0.9992550947744082</v>
       </c>
       <c r="ON3" t="n">
-        <v>1.477914102554642e-05</v>
+        <v>1.477914103493897e-05</v>
       </c>
       <c r="OO3" t="n">
-        <v>0.02065511729184214</v>
+        <v>0.02065511730599762</v>
       </c>
       <c r="OP3" t="inlineStr">
         <is>
@@ -11417,97 +11417,97 @@
         <v>1</v>
       </c>
       <c r="OR3" t="n">
-        <v>240.0397797103939</v>
+        <v>240.0397797567374</v>
       </c>
       <c r="OS3" t="n">
-        <v>62200.80932530582</v>
+        <v>62200.80937451098</v>
       </c>
       <c r="OT3" t="n">
-        <v>0.9033702309701113</v>
+        <v>0.9033702315102849</v>
       </c>
       <c r="OU3" t="n">
-        <v>297275.4175482462</v>
+        <v>297275.4175813309</v>
       </c>
       <c r="OV3" t="n">
-        <v>366129.589617332</v>
+        <v>366129.5896637135</v>
       </c>
       <c r="OW3" t="n">
-        <v>3802.968979720477</v>
+        <v>3802.968979686788</v>
       </c>
       <c r="OX3" t="n">
-        <v>-546734.2465202329</v>
+        <v>-546734.2466420075</v>
       </c>
       <c r="OY3" t="n">
-        <v>716.0856861045172</v>
+        <v>716.0856861053943</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1004.546741528167</v>
+        <v>1004.546741529509</v>
       </c>
       <c r="PA3" t="n">
-        <v>1.402830360976588</v>
+        <v>1.402830360976743</v>
       </c>
       <c r="PB3" t="n">
-        <v>0.9992883191993702</v>
+        <v>0.9992883191994198</v>
       </c>
       <c r="PC3" t="n">
-        <v>310.6800956001882</v>
+        <v>310.6800956302121</v>
       </c>
       <c r="PD3" t="n">
-        <v>87195.21146612629</v>
+        <v>87195.21153511795</v>
       </c>
       <c r="PE3" t="n">
-        <v>1.146851969489725e-05</v>
+        <v>1.146851968582299e-05</v>
       </c>
       <c r="PF3" t="n">
-        <v>62156.63268467107</v>
+        <v>62156.6327338445</v>
       </c>
       <c r="PG3" t="n">
-        <v>1.608838762345982e-05</v>
+        <v>1.608838761073195e-05</v>
       </c>
       <c r="PH3" t="n">
-        <v>0.004179180535131193</v>
+        <v>0.004179180534327491</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.551078490173066e-05</v>
+        <v>1.551078490418297e-05</v>
       </c>
       <c r="PJ3" t="n">
-        <v>0.02176029253055925</v>
+        <v>0.02176029253427343</v>
       </c>
       <c r="PK3" t="n">
-        <v>62200.80932530582</v>
+        <v>62200.80937451098</v>
       </c>
       <c r="PL3" t="n">
-        <v>0.9033702309701113</v>
+        <v>0.9033702315102849</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.9033702309701113</v>
+        <v>0.9033702315102849</v>
       </c>
       <c r="PN3" t="n">
-        <v>297275.4175482462</v>
+        <v>297275.4175813309</v>
       </c>
       <c r="PO3" t="n">
-        <v>366129.589617332</v>
+        <v>366129.5896637135</v>
       </c>
       <c r="PP3" t="n">
-        <v>3802.968979720477</v>
+        <v>3802.968979686788</v>
       </c>
       <c r="PQ3" t="n">
-        <v>716.0856861045172</v>
+        <v>716.0856861053943</v>
       </c>
       <c r="PR3" t="n">
-        <v>1004.546741528167</v>
+        <v>1004.546741529509</v>
       </c>
       <c r="PS3" t="n">
-        <v>310.6800956001882</v>
+        <v>310.6800956302121</v>
       </c>
       <c r="PT3" t="n">
-        <v>0.9992883191993702</v>
+        <v>0.9992883191994198</v>
       </c>
       <c r="PU3" t="n">
-        <v>1.551078490173066e-05</v>
+        <v>1.551078490418297e-05</v>
       </c>
       <c r="PV3" t="n">
-        <v>0.02176029253055925</v>
+        <v>0.02176029253427343</v>
       </c>
       <c r="PW3" t="inlineStr">
         <is>
@@ -11518,97 +11518,97 @@
         <v>1</v>
       </c>
       <c r="PY3" t="n">
-        <v>268.2973288823122</v>
+        <v>268.2973288018293</v>
       </c>
       <c r="PZ3" t="n">
-        <v>91741.76098905984</v>
+        <v>91741.76090144279</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.191946945253519</v>
+        <v>1.191946944473243</v>
       </c>
       <c r="QB3" t="n">
-        <v>317466.2740065963</v>
+        <v>317466.2739490481</v>
       </c>
       <c r="QC3" t="n">
-        <v>394434.26436421</v>
+        <v>394434.2642835393</v>
       </c>
       <c r="QD3" t="n">
-        <v>3802.968979714768</v>
+        <v>3802.96897968807</v>
       </c>
       <c r="QE3" t="n">
-        <v>-625892.1547155541</v>
+        <v>-625892.1544829877</v>
       </c>
       <c r="QF3" t="n">
-        <v>716.775553792122</v>
+        <v>716.7755537896352</v>
       </c>
       <c r="QG3" t="n">
-        <v>1005.421845610916</v>
+        <v>1005.421845608043</v>
       </c>
       <c r="QH3" t="n">
-        <v>1.402701083054106</v>
+        <v>1.402701083054964</v>
       </c>
       <c r="QI3" t="n">
-        <v>0.999395911042119</v>
+        <v>0.999395911041679</v>
       </c>
       <c r="QJ3" t="n">
-        <v>328.4785706702758</v>
+        <v>328.478570620963</v>
       </c>
       <c r="QK3" t="n">
-        <v>128608.8957862592</v>
+        <v>128608.8956634541</v>
       </c>
       <c r="QL3" t="n">
-        <v>7.775511902862021e-06</v>
+        <v>7.775511910286646e-06</v>
       </c>
       <c r="QM3" t="n">
-        <v>91686.60189969957</v>
+        <v>91686.60181209445</v>
       </c>
       <c r="QN3" t="n">
-        <v>1.090671896744465e-05</v>
+        <v>1.090671897786585e-05</v>
       </c>
       <c r="QO3" t="n">
-        <v>0.003739816907663071</v>
+        <v>0.003739816908784077</v>
       </c>
       <c r="QP3" t="n">
-        <v>1.697298318916187e-05</v>
+        <v>1.697298318508732e-05</v>
       </c>
       <c r="QQ3" t="n">
-        <v>0.02398464274767693</v>
+        <v>0.02398464274145039</v>
       </c>
       <c r="QR3" t="n">
-        <v>91741.76098905984</v>
+        <v>91741.76090144279</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.191946945253519</v>
+        <v>1.191946944473243</v>
       </c>
       <c r="QT3" t="n">
-        <v>1.191946945253519</v>
+        <v>1.191946944473243</v>
       </c>
       <c r="QU3" t="n">
-        <v>317466.2740065963</v>
+        <v>317466.2739490481</v>
       </c>
       <c r="QV3" t="n">
-        <v>394434.26436421</v>
+        <v>394434.2642835393</v>
       </c>
       <c r="QW3" t="n">
-        <v>3802.968979714768</v>
+        <v>3802.96897968807</v>
       </c>
       <c r="QX3" t="n">
-        <v>716.775553792122</v>
+        <v>716.7755537896352</v>
       </c>
       <c r="QY3" t="n">
-        <v>1005.421845610916</v>
+        <v>1005.421845608043</v>
       </c>
       <c r="QZ3" t="n">
-        <v>328.4785706702758</v>
+        <v>328.478570620963</v>
       </c>
       <c r="RA3" t="n">
-        <v>0.999395911042119</v>
+        <v>0.999395911041679</v>
       </c>
       <c r="RB3" t="n">
-        <v>1.697298318916187e-05</v>
+        <v>1.697298318508732e-05</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.02398464274767693</v>
+        <v>0.02398464274145039</v>
       </c>
       <c r="RD3" t="inlineStr">
         <is>
@@ -11619,52 +11619,52 @@
         <v>1</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.02457225863228122</v>
+        <v>0.0245722587023114</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.002612288277919554</v>
+        <v>0.002612288388729894</v>
       </c>
       <c r="RH3" t="n">
-        <v>0.01187896609788965</v>
+        <v>0.01187896609052798</v>
       </c>
       <c r="RI3" t="n">
-        <v>0.03214632319495826</v>
+        <v>0.03214632326007698</v>
       </c>
       <c r="RJ3" t="n">
-        <v>0.04300932499804105</v>
+        <v>0.04300932510387839</v>
       </c>
       <c r="RK3" t="n">
-        <v>0.1142191612010897</v>
+        <v>0.1142191615455246</v>
       </c>
       <c r="RL3" t="n">
-        <v>1.637674726530369e-05</v>
+        <v>1.637655871006283e-05</v>
       </c>
       <c r="RM3" t="n">
-        <v>0.548656894931361</v>
+        <v>0.5486568921698121</v>
       </c>
       <c r="RN3" t="n">
-        <v>0.9607318702757109</v>
+        <v>0.9607318669957773</v>
       </c>
       <c r="RO3" t="n">
-        <v>398917.8209340977</v>
+        <v>398917.8202807503</v>
       </c>
       <c r="RP3" t="n">
-        <v>2.748610138808796</v>
+        <v>2.748610136053941</v>
       </c>
       <c r="RQ3" t="n">
-        <v>380771.6903991901</v>
+        <v>380771.6903185133</v>
       </c>
       <c r="RR3" t="n">
         <v>0</v>
       </c>
       <c r="RS3" t="n">
-        <v>349215.6417188167</v>
+        <v>349215.641901763</v>
       </c>
       <c r="RT3" t="n">
-        <v>2819.854622194252</v>
+        <v>2819.854624273779</v>
       </c>
       <c r="RU3" t="n">
-        <v>6.469776523284864</v>
+        <v>6.469776654444892</v>
       </c>
     </row>
   </sheetData>
@@ -11703,7 +11703,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4091082238844572</v>
+        <v>0.4091082098673661</v>
       </c>
     </row>
     <row r="3">
@@ -11711,7 +11711,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4293639073759335</v>
+        <v>0.4293639058680003</v>
       </c>
     </row>
   </sheetData>
@@ -12811,13 +12811,13 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>3.126434790804885e-09</v>
+        <v>2.183757325874555e-08</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12839,16 +12839,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H3" t="n">
-        <v>6.267050299646649e-09</v>
+        <v>4.60757852047248e-08</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
